--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7CF91A-4D4A-4D38-8BB7-9987893A1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2EB066-250B-483B-A11D-0DE8204ED070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8D11C759-8767-4256-9E25-90A34587B317}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D11C759-8767-4256-9E25-90A34587B317}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="394">
   <si>
     <t>Title</t>
   </si>
@@ -1071,6 +1071,167 @@
   </si>
   <si>
     <t>abstraction; interoperability</t>
+  </si>
+  <si>
+    <t>Concept of a Modular and System Model Driven Digital Twin for Engineering Education</t>
+  </si>
+  <si>
+    <t>Reliable Counterparts: Efficiently Testing Causal Relationships in Digital Twins</t>
+  </si>
+  <si>
+    <t>Supporting Digital Twins for the Retrofit in Aviation by a Model-Driven Data Handling</t>
+  </si>
+  <si>
+    <t>Supporting the Implementation of Digital Twins for IoT-Enhanced BPs</t>
+  </si>
+  <si>
+    <t>TwinOps - DevOps Meets Model-Based Engineering and Digital Twins for the Engineering of CPS</t>
+  </si>
+  <si>
+    <t>It is generally defined as a concept in which operational data _x000D_
+from a physical counterpart is processed within models to give _x000D_
+recommendations towards a user or the system itself. Other _x000D_
+components include its bidirectional orientation [9] as well as its _x000D_
+real time capabilities [15].</t>
+  </si>
+  <si>
+    <t>"Digital twins rely on models to accurately represent their physical counterpart, accepting real-time data from the coupled physical system and relaying feedback to provide more informed functionality"; "Digital twins are an emerging technology. They use data-driven and physics-based simulation to model, communicate with and pro_x0002_vide additional functionality to their coupled physical system"</t>
+  </si>
+  <si>
+    <t>"the digital twin is described more generally as a concept, which describes the linkage between (aspects of) a physical product or object and its virtual representation"</t>
+  </si>
+  <si>
+    <t>"This work considers two main features of a digital twin system: (1) the representation and storage of the characteristics of real-world entities in a structured form, and (2) the runtime synchronisation between digital and real-world entities."; "A Digital Twin (DT) is a virtual representation of real-world entities (physical objects and systems, or immaterial things that exist over a significant time span) and processes (events or activities that occur in time), synchronised at a specified frequency and fidelity
+[1]. It connects with the physical part allowing data transfer from the physical to the digital part and vice versa, in such a way that it can represent, simulate, or predict changes in the physical system."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Digital Twins. consist of three components, a physical product, a virtual representation of that product, and the bi-directional data connections that feed data from the physical to the virtual representation, and information and processes from the virtual representation to the physical" </t>
+  </si>
+  <si>
+    <t>SysML (BDD, Sequence Diagram, Parametric Diagram, State Machines)</t>
+  </si>
+  <si>
+    <t>Simulink</t>
+  </si>
+  <si>
+    <t>DTDL</t>
+  </si>
+  <si>
+    <t>AADL</t>
+  </si>
+  <si>
+    <t>data model</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>Causal Directed Acyclic Graphs (DAG)</t>
+  </si>
+  <si>
+    <t>SysML (csv representation)</t>
+  </si>
+  <si>
+    <t>BPMN Model</t>
+  </si>
+  <si>
+    <t>Simulink Model</t>
+  </si>
+  <si>
+    <t>Inference Engine</t>
+  </si>
+  <si>
+    <t>SysML (Graph Database entries)</t>
+  </si>
+  <si>
+    <t>DTDL Model</t>
+  </si>
+  <si>
+    <t>java template code for microservices</t>
+  </si>
+  <si>
+    <t>Azure code that is used to execute the system and perform monitoring (I think that both aspects are the same)</t>
+  </si>
+  <si>
+    <t>LNT model (used for model checking)</t>
+  </si>
+  <si>
+    <t>FMI device mock-ups</t>
+  </si>
+  <si>
+    <t>"MBSE seems a promising approach to grasp the increasing complexity of modern systems", "Hence, a model driven concept, which directly utilizes these models seems to be a promising approach e.g., by directly deriving executable code for the Twin. "</t>
+  </si>
+  <si>
+    <t>perform causal inference based on DAG and runtime data</t>
+  </si>
+  <si>
+    <t>"model-driven approach to support data handling in aviation"</t>
+  </si>
+  <si>
+    <t>we propose a Model-Driven approach to support the creation_x000D_
+of the software artefacts required to represent, store and synchronise at runtime the_x000D_
+characteristics of real-world entities in IoT-enhanced BPs DTs.</t>
+  </si>
+  <si>
+    <t>"critical impacts of automated code generation on the engineering of embedded software in both increased confidence in produced software and fast delivery. "</t>
+  </si>
+  <si>
+    <t>"Digital Twins must be utilized to solve problems 
+and generate benefits."</t>
+  </si>
+  <si>
+    <t>"digital twins of specific aircraft focusing on the information needed for the retrofit"</t>
+  </si>
+  <si>
+    <t>"This work considers two main features of a digital twin system: (1) the representation and storage of the characteristics of real-world entities in a structured form, and (2) the runtime synchronisation between digital and real-world entities."</t>
+  </si>
+  <si>
+    <t>support system continuous improvement and maintenance through the analysis of runtime logs and their comparison to system optimal performance.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Individual Systems</t>
+  </si>
+  <si>
+    <t>Systems of Systems</t>
+  </si>
+  <si>
+    <t>"System models can help to 
+visualize this complexity and at the same time being utilized to 
+define this behaviour in a machine-readable context, such as 
+shown in [26]. "</t>
+  </si>
+  <si>
+    <t>DTs use "models to accurately represent their physical counterpart"</t>
+  </si>
+  <si>
+    <t>single-source-of-truth aspect of system models; creation of these models can be performed by engineers with no expertise in programming; " digitized single source of truth", "This makes the previously mostly analog information digitally available during the retrofit."</t>
+  </si>
+  <si>
+    <t>enable simulation; "Models can address some of these concerns: systems engineering models to capture system requirements, its interface, and theirmdecomposition into subsystems; simulation models to evaluate the system general behavior; engineering models to move forward towards the realization of the system"</t>
+  </si>
+  <si>
+    <t>"implementation of graph algorithms to source information from the complete set of information" (similarities between related aircraft could be automatically identified)</t>
+  </si>
+  <si>
+    <t>TRL 1-3</t>
+  </si>
+  <si>
+    <t>education platform</t>
+  </si>
+  <si>
+    <t>Robotic arm</t>
+  </si>
+  <si>
+    <t>Aircraft cabine refitting</t>
+  </si>
+  <si>
+    <t>CO2 Measurement</t>
+  </si>
+  <si>
+    <t>hypothetical monitoring system for a building</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
@@ -1296,9 +1456,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ausgabe" xfId="4" builtinId="21"/>
@@ -1308,7 +1467,70 @@
     <cellStyle name="Notiz" xfId="5" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="29">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1319,7 +1541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1387,34 +1609,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}" name="Tabelle1" displayName="Tabelle1" ref="A1:Y69" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:Y69" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}" name="Tabelle1" displayName="Tabelle1" ref="A1:Y79" totalsRowShown="0" headerRowDxfId="28" dataDxfId="0" headerRowBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:Y79" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{E9EA00CB-767A-4E0F-9046-D9C305AB9BE1}" name="Title" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4944576F-D53E-412A-A718-8D15CEAC1F87}" name="DT Definition"/>
-    <tableColumn id="20" xr3:uid="{CBABB8A1-00DB-4C7A-AC1E-41C4010C63ED}" name="virtual space" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{CBD659E4-5140-4C8F-9EB7-6044F524E690}" name="Kritzinger" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{40736154-6068-44CA-9B63-88344A4B54C4}" name="DT is specific" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C9CCBD3A-27D3-450B-9595-44CB8E2811DA}" name="modeling language"/>
-    <tableColumn id="21" xr3:uid="{532C571A-A3FD-4370-AAA4-C4F894A2F074}" name="note on modeling language"/>
-    <tableColumn id="4" xr3:uid="{EB6C62BB-070B-4919-9AC2-DCEB8E7627FF}" name="model type"/>
-    <tableColumn id="5" xr3:uid="{B0D219EE-0CED-43F8-94EA-21B9C6F43EA9}" name="model processing technique"/>
-    <tableColumn id="6" xr3:uid="{F5C81335-1FDC-4C5A-A1A2-6A37BD409F8F}" name="model usage technique"/>
-    <tableColumn id="7" xr3:uid="{50DB7CC0-00A8-49BF-BE2F-2FBEFD4DAD97}" name="source"/>
-    <tableColumn id="8" xr3:uid="{67098055-7248-42BA-BA89-183AEB280879}" name="target"/>
-    <tableColumn id="9" xr3:uid="{1899C93D-B2A5-4F9B-A715-253BA332D22F}" name="purpose of MDE application"/>
-    <tableColumn id="10" xr3:uid="{1AA673CF-3A3D-4A64-B616-95F7D0973171}" name="purpose of DT"/>
-    <tableColumn id="24" xr3:uid="{DA1C9F80-FD4C-4F63-B688-544381E0FBE8}" name="DTPurposeCategory" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{6AEE8298-3C9A-4B38-8133-409F65E1CC23}" name="use case domain"/>
-    <tableColumn id="12" xr3:uid="{9499E08A-7527-4E4A-B957-C9B652220340}" name="system lifecycle phase"/>
-    <tableColumn id="13" xr3:uid="{D4F96103-B987-421B-BDA9-07A167BCE10D}" name="twinning target"/>
-    <tableColumn id="14" xr3:uid="{AAD31C43-B8FA-403C-8972-6F365065F29E}" name="twin lifecycle phase"/>
-    <tableColumn id="15" xr3:uid="{D1E76F89-678F-498B-97FD-493EF01FF81C}" name="purpose /expected benefit of using models"/>
-    <tableColumn id="25" xr3:uid="{11854641-31A8-4B9D-B081-A9EF0517B63F}" name="ModelPurposeCategory"/>
-    <tableColumn id="16" xr3:uid="{27981E42-41B7-4E59-812C-1FFEB850EB4E}" name="open challenges"/>
-    <tableColumn id="17" xr3:uid="{B6BBF896-38D1-4F10-98BC-2570B7841C08}" name="Technological Readiness Level"/>
-    <tableColumn id="18" xr3:uid="{7E4CD30B-5CBB-4532-9641-16A4E11AEFCD}" name="notes"/>
-    <tableColumn id="19" xr3:uid="{EE727955-0840-49EF-BB36-A6E7966D74DD}" name="Use Case"/>
+    <tableColumn id="1" xr3:uid="{E9EA00CB-767A-4E0F-9046-D9C305AB9BE1}" name="Title" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4944576F-D53E-412A-A718-8D15CEAC1F87}" name="DT Definition" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{CBABB8A1-00DB-4C7A-AC1E-41C4010C63ED}" name="virtual space" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{CBD659E4-5140-4C8F-9EB7-6044F524E690}" name="Kritzinger" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{40736154-6068-44CA-9B63-88344A4B54C4}" name="DT is specific" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{C9CCBD3A-27D3-450B-9595-44CB8E2811DA}" name="modeling language" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{532C571A-A3FD-4370-AAA4-C4F894A2F074}" name="note on modeling language" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{EB6C62BB-070B-4919-9AC2-DCEB8E7627FF}" name="model type" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B0D219EE-0CED-43F8-94EA-21B9C6F43EA9}" name="model processing technique" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{F5C81335-1FDC-4C5A-A1A2-6A37BD409F8F}" name="model usage technique" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{50DB7CC0-00A8-49BF-BE2F-2FBEFD4DAD97}" name="source" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{67098055-7248-42BA-BA89-183AEB280879}" name="target" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{1899C93D-B2A5-4F9B-A715-253BA332D22F}" name="purpose of MDE application" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{1AA673CF-3A3D-4A64-B616-95F7D0973171}" name="purpose of DT" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{DA1C9F80-FD4C-4F63-B688-544381E0FBE8}" name="DTPurposeCategory" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{6AEE8298-3C9A-4B38-8133-409F65E1CC23}" name="use case domain" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{9499E08A-7527-4E4A-B957-C9B652220340}" name="system lifecycle phase" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{D4F96103-B987-421B-BDA9-07A167BCE10D}" name="twinning target" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{AAD31C43-B8FA-403C-8972-6F365065F29E}" name="twin lifecycle phase" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{D1E76F89-678F-498B-97FD-493EF01FF81C}" name="purpose /expected benefit of using models" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{11854641-31A8-4B9D-B081-A9EF0517B63F}" name="ModelPurposeCategory" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{27981E42-41B7-4E59-812C-1FFEB850EB4E}" name="open challenges" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{B6BBF896-38D1-4F10-98BC-2570B7841C08}" name="Technological Readiness Level" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{7E4CD30B-5CBB-4532-9641-16A4E11AEFCD}" name="notes" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{EE727955-0840-49EF-BB36-A6E7966D74DD}" name="Use Case" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1717,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC3CDE2-2548-49E4-A153-B9B62C0D483B}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X69" sqref="X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1770,46 +1992,46 @@
       <c r="G1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -1826,2524 +2048,3854 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S3" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="X6" s="12"/>
+      <c r="Y6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S7" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="V8" s="12"/>
+      <c r="W8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="X8" s="12"/>
+      <c r="Y8" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S9" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S12" t="s">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="P13" t="s">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="W13" t="s">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12" t="s">
         <v>79</v>
       </c>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S14" t="s">
+      <c r="R14" s="12"/>
+      <c r="S14" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="W15" t="s">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S16" t="s">
+      <c r="R16" s="12"/>
+      <c r="S16" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="M17" s="12"/>
+      <c r="N17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S18" t="s">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="M19" s="12"/>
+      <c r="N19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="V19" s="12"/>
+      <c r="W19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="12"/>
+      <c r="N20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="V20" s="12"/>
+      <c r="W20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="X20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F22" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>116</v>
       </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" s="12"/>
+      <c r="K23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U23" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Y23" s="6" t="s">
+      <c r="X23" s="12"/>
+      <c r="Y23" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F24" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S24" t="s">
+      <c r="R24" s="12"/>
+      <c r="S24" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F25" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S25" t="s">
+      <c r="R25" s="12"/>
+      <c r="S25" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S26" t="s">
+      <c r="R26" s="12"/>
+      <c r="S26" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S27" t="s">
+      <c r="R27" s="12"/>
+      <c r="S27" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K28" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S28" t="s">
+      <c r="R28" s="12"/>
+      <c r="S28" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S29" t="s">
+      <c r="R29" s="12"/>
+      <c r="S29" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F30" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K30" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="P30" t="s">
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="T30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="V30" s="12"/>
+      <c r="W30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y30" s="6" t="s">
+      <c r="X30" s="12"/>
+      <c r="Y30" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K31" t="s">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S31" t="s">
+      <c r="R31" s="12"/>
+      <c r="S31" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K32" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S32" t="s">
+      <c r="R32" s="12"/>
+      <c r="S32" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S33" t="s">
+      <c r="R33" s="12"/>
+      <c r="S33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V33" s="6" t="s">
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="W33" s="6" t="s">
+      <c r="W33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X33" s="6" t="s">
+      <c r="X33" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="Y33" s="12"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="R34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V34" s="6" t="s">
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="W34" s="6" t="s">
+      <c r="W34" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F35" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
         <v>159</v>
       </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" s="12"/>
+      <c r="K36" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="M36" s="12"/>
+      <c r="N36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W36" s="6" t="s">
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H37" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S37" t="s">
+      <c r="R37" s="12"/>
+      <c r="S37" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F38" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W38" s="6" t="s">
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F39" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S39" t="s">
+      <c r="R39" s="12"/>
+      <c r="S39" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F40" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="12" t="s">
         <v>274</v>
       </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="J41" s="12"/>
+      <c r="K41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="M41" s="12"/>
+      <c r="N41" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W41" t="s">
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F42" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="12" t="s">
         <v>268</v>
       </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" s="12"/>
+      <c r="H43" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K43" t="s">
+      <c r="J43" s="12"/>
+      <c r="K43" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T43" s="6" t="s">
+      <c r="T43" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="W43" s="6" t="s">
+      <c r="V43" s="12"/>
+      <c r="W43" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F44" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J44" s="12"/>
+      <c r="K44" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S44" t="s">
+      <c r="R44" s="12"/>
+      <c r="S44" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J45" s="12"/>
+      <c r="K45" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="P45" t="s">
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S45" t="s">
+      <c r="R45" s="12"/>
+      <c r="S45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T45" s="6" t="s">
+      <c r="T45" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U45" s="6" t="s">
+      <c r="U45" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="V45" s="6" t="s">
+      <c r="V45" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="W45" s="6" t="s">
+      <c r="W45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y45" s="6" t="str">
+      <c r="X45" s="12"/>
+      <c r="Y45" s="5" t="str">
         <f>LOWER("AUTOMATIC FIRE EXTINGUISHING SYSTEM")</f>
         <v>automatic fire extinguishing system</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F46" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K46" t="s">
+      <c r="J46" s="12"/>
+      <c r="K46" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S46" t="s">
+      <c r="S46" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F47" t="s">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K47" t="s">
+      <c r="J47" s="12"/>
+      <c r="K47" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S47" t="s">
+      <c r="R47" s="12"/>
+      <c r="S47" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F48" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K48" t="s">
+      <c r="J48" s="12"/>
+      <c r="K48" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S48" t="s">
+      <c r="R48" s="12"/>
+      <c r="S48" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F49" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J49" s="12"/>
+      <c r="K49" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S49" t="s">
+      <c r="R49" s="12"/>
+      <c r="S49" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="K50" t="s">
+      <c r="J50" s="12"/>
+      <c r="K50" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="N50" t="s">
+      <c r="M50" s="12"/>
+      <c r="N50" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V50" s="6" t="s">
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="W50" s="6" t="s">
+      <c r="W50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F51" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="M51" s="12"/>
+      <c r="N51" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S51" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W51" s="6" t="s">
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X51" s="6" t="s">
+      <c r="X51" s="5" t="s">
         <v>205</v>
       </c>
+      <c r="Y51" s="12"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H52" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S52" t="s">
+      <c r="R52" s="12"/>
+      <c r="S52" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K53" t="s">
+      <c r="J53" s="12"/>
+      <c r="K53" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="P53" t="s">
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W53" s="6" t="s">
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F54" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K54" t="s">
+      <c r="J54" s="12"/>
+      <c r="K54" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="M54" s="12"/>
+      <c r="N54" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S54" t="s">
+      <c r="R54" s="12"/>
+      <c r="S54" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W54" s="6" t="s">
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y54" s="6" t="s">
+      <c r="X54" s="12"/>
+      <c r="Y54" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F55" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K55" t="s">
+      <c r="J55" s="12"/>
+      <c r="K55" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S55" t="s">
+      <c r="R55" s="12"/>
+      <c r="S55" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F56" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K56" t="s">
+      <c r="J56" s="12"/>
+      <c r="K56" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S56" t="s">
+      <c r="R56" s="12"/>
+      <c r="S56" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F57" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K57" t="s">
+      <c r="J57" s="12"/>
+      <c r="K57" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S57" t="s">
+      <c r="R57" s="12"/>
+      <c r="S57" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K58" t="s">
+      <c r="J58" s="12"/>
+      <c r="K58" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="N58" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="S58" t="s">
+      <c r="S58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W58" s="6" t="s">
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y58" s="6" t="s">
+      <c r="X58" s="12"/>
+      <c r="Y58" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F59" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" s="12"/>
+      <c r="K59" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S59" t="s">
+      <c r="R59" s="12"/>
+      <c r="S59" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F60" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
         <v>142</v>
       </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K61" t="s">
+      <c r="J61" s="12"/>
+      <c r="K61" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="P61" t="s">
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S61" t="s">
+      <c r="S61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T61" s="6" t="s">
+      <c r="T61" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U61" t="s">
+      <c r="U61" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="W61" s="6" t="s">
+      <c r="V61" s="12"/>
+      <c r="W61" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F62" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" s="12"/>
+      <c r="K62" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S62" t="s">
+      <c r="R62" s="12"/>
+      <c r="S62" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F63" t="s">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K63" t="s">
+      <c r="J63" s="12"/>
+      <c r="K63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S63" t="s">
+      <c r="R63" s="12"/>
+      <c r="S63" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K64" t="s">
+      <c r="J64" s="12"/>
+      <c r="K64" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="M64" s="12"/>
+      <c r="N64" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S64" t="s">
+      <c r="S64" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="W64" s="6" t="s">
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X64" s="12" t="s">
         <v>238</v>
       </c>
+      <c r="Y64" s="12"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K65" t="s">
+      <c r="J65" s="12"/>
+      <c r="K65" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="M65" s="12"/>
+      <c r="N65" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S65" t="s">
+      <c r="S65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W65" s="6" t="s">
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K66" t="s">
+      <c r="J66" s="12"/>
+      <c r="K66" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="M66" s="6" t="s">
+      <c r="M66" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="N66" s="6" t="s">
+      <c r="N66" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R66" t="s">
+      <c r="R66" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S66" t="s">
+      <c r="S66" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W66" s="6" t="s">
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y66" s="6" t="s">
+      <c r="X66" s="12"/>
+      <c r="Y66" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H67" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K67" t="s">
+      <c r="J67" s="12"/>
+      <c r="K67" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S67" t="s">
+      <c r="R67" s="12"/>
+      <c r="S67" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G68" s="12"/>
+      <c r="H68" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="K68" t="s">
+      <c r="J68" s="12"/>
+      <c r="K68" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="M68" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N68" s="6" t="s">
+      <c r="N68" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S68" t="s">
+      <c r="R68" s="12"/>
+      <c r="S68" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W68" s="6" t="s">
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="6"/>
+      <c r="A69" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" t="s">
+        <v>358</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="12"/>
+      <c r="K69" t="s">
+        <v>269</v>
+      </c>
+      <c r="L69" t="s">
+        <v>363</v>
+      </c>
+      <c r="M69" t="s">
+        <v>371</v>
+      </c>
+      <c r="N69" t="s">
+        <v>376</v>
+      </c>
+      <c r="O69" s="12"/>
+      <c r="P69" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>27</v>
+      </c>
+      <c r="R69" t="s">
+        <v>381</v>
+      </c>
+      <c r="S69" t="s">
+        <v>29</v>
+      </c>
+      <c r="T69" t="s">
+        <v>383</v>
+      </c>
+      <c r="U69" s="12"/>
+      <c r="W69" t="s">
+        <v>388</v>
+      </c>
+      <c r="X69" s="12"/>
+      <c r="Y69" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" t="s">
+        <v>359</v>
+      </c>
+      <c r="J70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="X70" s="12"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="I71" t="s">
+        <v>328</v>
+      </c>
+      <c r="J71" s="12"/>
+      <c r="K71" t="s">
+        <v>360</v>
+      </c>
+      <c r="L71" t="s">
+        <v>364</v>
+      </c>
+      <c r="M71" t="s">
+        <v>372</v>
+      </c>
+      <c r="O71" s="12"/>
+      <c r="P71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>380</v>
+      </c>
+      <c r="R71" t="s">
+        <v>381</v>
+      </c>
+      <c r="S71" t="s">
+        <v>29</v>
+      </c>
+      <c r="T71" t="s">
+        <v>384</v>
+      </c>
+      <c r="U71" s="12"/>
+      <c r="W71" t="s">
+        <v>388</v>
+      </c>
+      <c r="X71" s="12"/>
+      <c r="Y71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" t="s">
+        <v>358</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="12"/>
+      <c r="K72" t="s">
+        <v>361</v>
+      </c>
+      <c r="L72" t="s">
+        <v>365</v>
+      </c>
+      <c r="M72" t="s">
+        <v>373</v>
+      </c>
+      <c r="N72" t="s">
+        <v>377</v>
+      </c>
+      <c r="O72" s="12"/>
+      <c r="P72" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R72" t="s">
+        <v>381</v>
+      </c>
+      <c r="S72" t="s">
+        <v>50</v>
+      </c>
+      <c r="T72" t="s">
+        <v>385</v>
+      </c>
+      <c r="U72" s="12"/>
+      <c r="V72" t="s">
+        <v>387</v>
+      </c>
+      <c r="W72" t="s">
+        <v>388</v>
+      </c>
+      <c r="X72" s="12"/>
+      <c r="Y72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="12"/>
+      <c r="K73" t="s">
+        <v>362</v>
+      </c>
+      <c r="L73" t="s">
+        <v>366</v>
+      </c>
+      <c r="M73" t="s">
+        <v>374</v>
+      </c>
+      <c r="N73" t="s">
+        <v>378</v>
+      </c>
+      <c r="O73" s="12"/>
+      <c r="P73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>27</v>
+      </c>
+      <c r="R73" t="s">
+        <v>382</v>
+      </c>
+      <c r="S73" t="s">
+        <v>29</v>
+      </c>
+      <c r="U73" s="12"/>
+      <c r="W73" t="s">
+        <v>388</v>
+      </c>
+      <c r="X73" s="12"/>
+      <c r="Y73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" t="s">
+        <v>358</v>
+      </c>
+      <c r="I74" t="s">
+        <v>327</v>
+      </c>
+      <c r="J74" s="12"/>
+      <c r="K74" t="s">
+        <v>362</v>
+      </c>
+      <c r="L74" t="s">
+        <v>367</v>
+      </c>
+      <c r="O74" s="12"/>
+      <c r="Q74" t="s">
+        <v>59</v>
+      </c>
+      <c r="S74" t="s">
+        <v>29</v>
+      </c>
+      <c r="U74" s="12"/>
+      <c r="X74" s="12"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="12"/>
+      <c r="K75" t="s">
+        <v>269</v>
+      </c>
+      <c r="L75" t="s">
+        <v>357</v>
+      </c>
+      <c r="M75" t="s">
+        <v>375</v>
+      </c>
+      <c r="N75" t="s">
+        <v>379</v>
+      </c>
+      <c r="O75" s="12"/>
+      <c r="P75" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>27</v>
+      </c>
+      <c r="R75" t="s">
+        <v>382</v>
+      </c>
+      <c r="S75" t="s">
+        <v>29</v>
+      </c>
+      <c r="T75" t="s">
+        <v>386</v>
+      </c>
+      <c r="U75" s="12"/>
+      <c r="W75" t="s">
+        <v>388</v>
+      </c>
+      <c r="X75" s="12"/>
+      <c r="Y75" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="I76" t="s">
+        <v>327</v>
+      </c>
+      <c r="J76" s="12"/>
+      <c r="K76" t="s">
+        <v>357</v>
+      </c>
+      <c r="L76" t="s">
+        <v>368</v>
+      </c>
+      <c r="O76" s="12"/>
+      <c r="Q76" t="s">
+        <v>59</v>
+      </c>
+      <c r="S76" t="s">
+        <v>29</v>
+      </c>
+      <c r="U76" s="12"/>
+      <c r="X76" s="12"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="I77" t="s">
+        <v>327</v>
+      </c>
+      <c r="J77" s="12"/>
+      <c r="K77" t="s">
+        <v>357</v>
+      </c>
+      <c r="L77" t="s">
+        <v>369</v>
+      </c>
+      <c r="O77" s="12"/>
+      <c r="Q77" t="s">
+        <v>59</v>
+      </c>
+      <c r="S77" t="s">
+        <v>29</v>
+      </c>
+      <c r="U77" s="12"/>
+      <c r="X77" s="12"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="I78" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" s="12"/>
+      <c r="K78" t="s">
+        <v>357</v>
+      </c>
+      <c r="L78" t="s">
+        <v>370</v>
+      </c>
+      <c r="O78" s="12"/>
+      <c r="Q78" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" t="s">
+        <v>29</v>
+      </c>
+      <c r="U78" s="12"/>
+      <c r="X78" s="12"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="5"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac130903\Desktop\MDE4DT\2\1\mde4dts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2EB066-250B-483B-A11D-0DE8204ED070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE6D9F-8CD2-4FAA-916B-D26B5385EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D11C759-8767-4256-9E25-90A34587B317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D11C759-8767-4256-9E25-90A34587B317}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="392">
   <si>
     <t>Title</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>AutomationML</t>
-  </si>
-  <si>
-    <t>structure</t>
   </si>
   <si>
     <t>AutomationML models</t>
@@ -974,9 +971,6 @@
   </si>
   <si>
     <t>cyber-physical spaces (3D topology) model</t>
-  </si>
-  <si>
-    <t>Bi-Directional Model Transformation</t>
   </si>
   <si>
     <t>DT is specific</t>
@@ -1460,17 +1454,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Ausgabe" xfId="4" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Notiz" xfId="5" builtinId="10"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1554,6 +1545,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1609,41 +1603,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}" name="Tabelle1" displayName="Tabelle1" ref="A1:Y79" totalsRowShown="0" headerRowDxfId="28" dataDxfId="0" headerRowBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}" name="Tabelle1" displayName="Tabelle1" ref="A1:Y79" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:Y79" xr:uid="{2C290CE9-14EA-4DF4-9360-C084CCC50C1B}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{E9EA00CB-767A-4E0F-9046-D9C305AB9BE1}" name="Title" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{4944576F-D53E-412A-A718-8D15CEAC1F87}" name="DT Definition" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{CBABB8A1-00DB-4C7A-AC1E-41C4010C63ED}" name="virtual space" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{CBD659E4-5140-4C8F-9EB7-6044F524E690}" name="Kritzinger" dataDxfId="22"/>
-    <tableColumn id="23" xr3:uid="{40736154-6068-44CA-9B63-88344A4B54C4}" name="DT is specific" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{C9CCBD3A-27D3-450B-9595-44CB8E2811DA}" name="modeling language" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{532C571A-A3FD-4370-AAA4-C4F894A2F074}" name="note on modeling language" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{EB6C62BB-070B-4919-9AC2-DCEB8E7627FF}" name="model type" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B0D219EE-0CED-43F8-94EA-21B9C6F43EA9}" name="model processing technique" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{F5C81335-1FDC-4C5A-A1A2-6A37BD409F8F}" name="model usage technique" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{50DB7CC0-00A8-49BF-BE2F-2FBEFD4DAD97}" name="source" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{67098055-7248-42BA-BA89-183AEB280879}" name="target" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{1899C93D-B2A5-4F9B-A715-253BA332D22F}" name="purpose of MDE application" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{1AA673CF-3A3D-4A64-B616-95F7D0973171}" name="purpose of DT" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{DA1C9F80-FD4C-4F63-B688-544381E0FBE8}" name="DTPurposeCategory" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{6AEE8298-3C9A-4B38-8133-409F65E1CC23}" name="use case domain" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{9499E08A-7527-4E4A-B957-C9B652220340}" name="system lifecycle phase" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{D4F96103-B987-421B-BDA9-07A167BCE10D}" name="twinning target" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{AAD31C43-B8FA-403C-8972-6F365065F29E}" name="twin lifecycle phase" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D1E76F89-678F-498B-97FD-493EF01FF81C}" name="purpose /expected benefit of using models" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{11854641-31A8-4B9D-B081-A9EF0517B63F}" name="ModelPurposeCategory" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{27981E42-41B7-4E59-812C-1FFEB850EB4E}" name="open challenges" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{B6BBF896-38D1-4F10-98BC-2570B7841C08}" name="Technological Readiness Level" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{7E4CD30B-5CBB-4532-9641-16A4E11AEFCD}" name="notes" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{EE727955-0840-49EF-BB36-A6E7966D74DD}" name="Use Case" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E9EA00CB-767A-4E0F-9046-D9C305AB9BE1}" name="Title" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4944576F-D53E-412A-A718-8D15CEAC1F87}" name="DT Definition" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{CBABB8A1-00DB-4C7A-AC1E-41C4010C63ED}" name="virtual space" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{CBD659E4-5140-4C8F-9EB7-6044F524E690}" name="Kritzinger" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{40736154-6068-44CA-9B63-88344A4B54C4}" name="DT is specific" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C9CCBD3A-27D3-450B-9595-44CB8E2811DA}" name="modeling language" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{532C571A-A3FD-4370-AAA4-C4F894A2F074}" name="note on modeling language" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{EB6C62BB-070B-4919-9AC2-DCEB8E7627FF}" name="model type" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{B0D219EE-0CED-43F8-94EA-21B9C6F43EA9}" name="model processing technique" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F5C81335-1FDC-4C5A-A1A2-6A37BD409F8F}" name="model usage technique" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{50DB7CC0-00A8-49BF-BE2F-2FBEFD4DAD97}" name="source" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{67098055-7248-42BA-BA89-183AEB280879}" name="target" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1899C93D-B2A5-4F9B-A715-253BA332D22F}" name="purpose of MDE application" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{1AA673CF-3A3D-4A64-B616-95F7D0973171}" name="purpose of DT" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{DA1C9F80-FD4C-4F63-B688-544381E0FBE8}" name="DTPurposeCategory" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{6AEE8298-3C9A-4B38-8133-409F65E1CC23}" name="use case domain" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{9499E08A-7527-4E4A-B957-C9B652220340}" name="system lifecycle phase" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{D4F96103-B987-421B-BDA9-07A167BCE10D}" name="twinning target" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{AAD31C43-B8FA-403C-8972-6F365065F29E}" name="twin lifecycle phase" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{D1E76F89-678F-498B-97FD-493EF01FF81C}" name="purpose /expected benefit of using models" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{11854641-31A8-4B9D-B081-A9EF0517B63F}" name="ModelPurposeCategory" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{27981E42-41B7-4E59-812C-1FFEB850EB4E}" name="open challenges" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{B6BBF896-38D1-4F10-98BC-2570B7841C08}" name="Technological Readiness Level" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{7E4CD30B-5CBB-4532-9641-16A4E11AEFCD}" name="notes" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{EE727955-0840-49EF-BB36-A6E7966D74DD}" name="Use Case" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1941,36 +1935,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC3CDE2-2548-49E4-A153-B9B62C0D483B}">
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X69" sqref="X69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.83984375" customWidth="1"/>
-    <col min="2" max="2" width="16.15625" customWidth="1"/>
-    <col min="3" max="3" width="15.41796875" customWidth="1"/>
-    <col min="4" max="4" width="15.15625" customWidth="1"/>
-    <col min="5" max="5" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="25.41796875" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="17.26171875" customWidth="1"/>
-    <col min="12" max="12" width="22.41796875" customWidth="1"/>
-    <col min="13" max="13" width="23.578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="41.68359375" customWidth="1"/>
-    <col min="17" max="17" width="20.578125" customWidth="1"/>
-    <col min="18" max="18" width="30.578125" customWidth="1"/>
-    <col min="19" max="19" width="38.41796875" customWidth="1"/>
-    <col min="20" max="22" width="23.15625" customWidth="1"/>
+    <col min="16" max="16" width="41.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="38.42578125" customWidth="1"/>
+    <col min="20" max="22" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,19 +1972,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>3</v>
@@ -2014,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>10</v>
@@ -2032,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>15</v>
@@ -2047,7 +2041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -2055,27 +2049,27 @@
         <v>20</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>23</v>
@@ -2087,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>26</v>
@@ -2105,7 +2099,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V2" s="12"/>
       <c r="W2" s="5" t="s">
@@ -2116,7 +2110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2125,10 +2119,10 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="5" t="s">
@@ -2159,50 +2153,50 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>331</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>27</v>
@@ -2214,10 +2208,10 @@
         <v>29</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="5" t="s">
@@ -2225,10 +2219,10 @@
       </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -2239,30 +2233,30 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="S5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
@@ -2271,28 +2265,28 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>22</v>
@@ -2302,22 +2296,22 @@
         <v>33</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -2327,46 +2321,46 @@
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -2375,9 +2369,9 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2388,30 +2382,30 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="Q8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>28</v>
@@ -2420,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V8" s="12"/>
       <c r="W8" s="5" t="s">
@@ -2431,42 +2425,42 @@
       </c>
       <c r="X8" s="12"/>
       <c r="Y8" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R9" s="12"/>
       <c r="S9" s="12" t="s">
@@ -2479,30 +2473,30 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>331</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>268</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2522,59 +2516,59 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
       <c r="M11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="O11" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -2585,9 +2579,9 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2596,28 +2590,28 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -2626,72 +2620,72 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2700,17 +2694,17 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -2730,52 +2724,52 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="N15" s="12" t="s">
+      <c r="O15" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>27</v>
@@ -2787,55 +2781,55 @@
         <v>29</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12" t="s">
@@ -2848,53 +2842,53 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>28</v>
@@ -2911,9 +2905,9 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2921,27 +2915,27 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="12" t="s">
@@ -2954,63 +2948,63 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="U19" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V19" s="12"/>
       <c r="W19" s="5" t="s">
@@ -3018,88 +3012,88 @@
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" s="12" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V20" s="12"/>
       <c r="W20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="X20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Y20" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -3121,16 +3115,16 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -3152,112 +3146,112 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="M23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="O23" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="W23" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
@@ -3266,41 +3260,41 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
@@ -3309,41 +3303,41 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
@@ -3352,41 +3346,41 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R27" s="12"/>
       <c r="S27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
@@ -3395,41 +3389,41 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
@@ -3438,41 +3432,41 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3481,41 +3475,41 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="M30" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R30" s="12" t="s">
         <v>28</v>
@@ -3524,10 +3518,10 @@
         <v>29</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="5" t="s">
@@ -3535,40 +3529,40 @@
       </c>
       <c r="X30" s="12"/>
       <c r="Y30" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="12" t="s">
@@ -3581,9 +3575,9 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3592,24 +3586,24 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="12" t="s">
@@ -3622,51 +3616,51 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R33" s="12"/>
       <c r="S33" s="12" t="s">
@@ -3675,64 +3669,64 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F34" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="H34" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>27</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" s="12" t="s">
         <v>29</v>
@@ -3740,7 +3734,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>31</v>
@@ -3748,16 +3742,16 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -3779,53 +3773,53 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="I36" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P36" s="12" t="s">
         <v>26</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>28</v>
@@ -3842,9 +3836,9 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3853,24 +3847,24 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="12" t="s">
@@ -3883,43 +3877,43 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R38" s="12" t="s">
         <v>28</v>
@@ -3935,40 +3929,40 @@
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="12" t="s">
@@ -3981,19 +3975,19 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -4014,21 +4008,21 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>21</v>
@@ -4036,58 +4030,58 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R41" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="S41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -4108,53 +4102,53 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="C43" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R43" s="12" t="s">
         <v>28</v>
@@ -4163,10 +4157,10 @@
         <v>29</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="5" t="s">
@@ -4175,37 +4169,37 @@
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="12" t="s">
@@ -4218,44 +4212,44 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="C45" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q45" s="12" t="s">
         <v>27</v>
@@ -4265,13 +4259,13 @@
         <v>29</v>
       </c>
       <c r="T45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="V45" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>31</v>
@@ -4282,37 +4276,37 @@
         <v>automatic fire extinguishing system</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R46" s="12" t="s">
         <v>28</v>
@@ -4327,37 +4321,37 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R47" s="12"/>
       <c r="S47" s="12" t="s">
@@ -4370,37 +4364,37 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R48" s="12"/>
       <c r="S48" s="12" t="s">
@@ -4413,37 +4407,37 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="12" t="s">
@@ -4456,54 +4450,54 @@
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="P50" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O50" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="P50" s="12" t="s">
+      <c r="Q50" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="Q50" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="R50" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" s="12" t="s">
         <v>29</v>
@@ -4511,52 +4505,52 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>31</v>
       </c>
       <c r="X50" s="12"/>
       <c r="Y50" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="H51" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q51" s="12" t="s">
         <v>27</v>
@@ -4574,13 +4568,13 @@
         <v>31</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -4589,17 +4583,17 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -4619,38 +4613,38 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -4659,7 +4653,7 @@
         <v>26</v>
       </c>
       <c r="Q53" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R53" s="12" t="s">
         <v>28</v>
@@ -4675,43 +4669,43 @@
       </c>
       <c r="X53" s="12"/>
       <c r="Y53" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L54" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q54" s="12" t="s">
         <v>27</v>
@@ -4728,33 +4722,33 @@
       </c>
       <c r="X54" s="12"/>
       <c r="Y54" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -4774,30 +4768,30 @@
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -4817,32 +4811,32 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>279</v>
-      </c>
       <c r="H57" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -4862,56 +4856,56 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L58" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="O58" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q58" s="12" t="s">
         <v>27</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S58" s="12" t="s">
         <v>29</v>
@@ -4924,33 +4918,33 @@
       </c>
       <c r="X58" s="12"/>
       <c r="Y58" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
@@ -4970,16 +4964,16 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -5001,47 +4995,47 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R61" s="12" t="s">
         <v>28</v>
@@ -5050,10 +5044,10 @@
         <v>29</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U61" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V61" s="12"/>
       <c r="W61" s="5" t="s">
@@ -5062,37 +5056,37 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R62" s="12"/>
       <c r="S62" s="12" t="s">
@@ -5105,37 +5099,37 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R63" s="12"/>
       <c r="S63" s="12" t="s">
@@ -5148,59 +5142,59 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="C64" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F64" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="H64" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L64" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R64" s="12" t="s">
         <v>28</v>
       </c>
       <c r="S64" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
@@ -5209,57 +5203,57 @@
         <v>31</v>
       </c>
       <c r="X64" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y64" s="12"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="Y64" s="12"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="10" t="s">
+      <c r="B65" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>241</v>
-      </c>
       <c r="G65" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>28</v>
@@ -5276,59 +5270,59 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L66" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="L66" s="12" t="s">
+      <c r="M66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="N66" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="O66" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R66" s="12" t="s">
         <v>28</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
@@ -5338,12 +5332,12 @@
       </c>
       <c r="X66" s="12"/>
       <c r="Y66" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -5352,28 +5346,28 @@
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R67" s="12"/>
       <c r="S67" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
@@ -5382,53 +5376,53 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L68" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="M68" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="N68" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N68" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="O68" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P68" s="12" t="s">
         <v>26</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R68" s="12"/>
       <c r="S68" s="12" t="s">
@@ -5442,93 +5436,93 @@
       </c>
       <c r="X68" s="12"/>
       <c r="Y68" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O69" s="12"/>
       <c r="P69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q69" t="s">
         <v>27</v>
       </c>
       <c r="R69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S69" t="s">
         <v>29</v>
       </c>
       <c r="T69" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U69" s="12"/>
       <c r="W69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="X69" s="12"/>
       <c r="Y69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J70" s="12"/>
       <c r="O70" s="12"/>
       <c r="U70" s="12"/>
       <c r="X70" s="12"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -5536,187 +5530,187 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="I71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J71" s="12"/>
       <c r="K71" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L71" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M71" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O71" s="12"/>
       <c r="P71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R71" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S71" t="s">
         <v>29</v>
       </c>
       <c r="T71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U71" s="12"/>
       <c r="W71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="X71" s="12"/>
       <c r="Y71" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L72" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M72" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O72" s="12"/>
       <c r="P72" t="s">
         <v>26</v>
       </c>
       <c r="Q72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U72" s="12"/>
       <c r="V72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="W72" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="X72" s="12"/>
       <c r="Y72" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L73" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O73" s="12"/>
       <c r="P73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q73" t="s">
         <v>27</v>
       </c>
       <c r="R73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S73" t="s">
         <v>29</v>
       </c>
       <c r="U73" s="12"/>
       <c r="W73" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="X73" s="12"/>
       <c r="Y73" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L74" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O74" s="12"/>
       <c r="Q74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
         <v>29</v>
@@ -5724,18 +5718,18 @@
       <c r="U74" s="12"/>
       <c r="X74" s="12"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G75" s="12"/>
       <c r="I75" t="s">
@@ -5743,67 +5737,67 @@
       </c>
       <c r="J75" s="12"/>
       <c r="K75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N75" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O75" s="12"/>
       <c r="P75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q75" t="s">
         <v>27</v>
       </c>
       <c r="R75" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S75" t="s">
         <v>29</v>
       </c>
       <c r="T75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U75" s="12"/>
       <c r="W75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="X75" s="12"/>
       <c r="Y75" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G76" s="12"/>
       <c r="I76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J76" s="12"/>
       <c r="K76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L76" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O76" s="12"/>
       <c r="Q76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
         <v>29</v>
@@ -5811,9 +5805,9 @@
       <c r="U76" s="12"/>
       <c r="X76" s="12"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -5822,18 +5816,18 @@
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="I77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J77" s="12"/>
       <c r="K77" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O77" s="12"/>
       <c r="Q77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
         <v>29</v>
@@ -5841,9 +5835,9 @@
       <c r="U77" s="12"/>
       <c r="X77" s="12"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -5852,18 +5846,18 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="I78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J78" s="12"/>
       <c r="K78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O78" s="12"/>
       <c r="Q78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
         <v>29</v>
@@ -5871,7 +5865,7 @@
       <c r="U78" s="12"/>
       <c r="X78" s="12"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac130903\Desktop\temps\mde4dts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5CF0B-52BF-4BFB-A2A7-B4CD45D1B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE07B06-F860-466C-8064-982D04DBEB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$S$71</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="379">
   <si>
     <t>Title</t>
   </si>
@@ -82,9 +93,6 @@
     <t>As-Designed</t>
   </si>
   <si>
-    <t>TRL 1-3</t>
-  </si>
-  <si>
     <t>limited traffic zone access control</t>
   </si>
   <si>
@@ -188,9 +196,6 @@
   </si>
   <si>
     <t>Processes</t>
-  </si>
-  <si>
-    <t>TRL 4-6</t>
   </si>
   <si>
     <t>Snap!</t>
@@ -890,15 +895,9 @@
     <t>Validation Research</t>
   </si>
   <si>
-    <t>E — Water Supply, Sewerage, Waste Management and Remediation Activities</t>
-  </si>
-  <si>
     <t>Water Monitoring System</t>
   </si>
   <si>
-    <t>code generation</t>
-  </si>
-  <si>
     <t>eBPMN (java-based implementation of a BP digital twin)</t>
   </si>
   <si>
@@ -908,18 +907,12 @@
     <t>A Model-Driven Digital Twin for Manufacturing Process Adaptation</t>
   </si>
   <si>
-    <t>model interpretation</t>
-  </si>
-  <si>
     <t>Application-Specific Behavior Model</t>
   </si>
   <si>
     <t>Digital Twin (I assume the information system)</t>
   </si>
   <si>
-    <t>C — Manufacturing</t>
-  </si>
-  <si>
     <t>adaptive condition mapping</t>
   </si>
   <si>
@@ -953,9 +946,6 @@
     <t>Evaluation Research</t>
   </si>
   <si>
-    <t>I — Accommodation and Food Service Activities</t>
-  </si>
-  <si>
     <t>Air conditioning</t>
   </si>
   <si>
@@ -974,9 +964,6 @@
     <t>Figure 6: ROS Launch Files</t>
   </si>
   <si>
-    <t>H — Transportation and Storage</t>
-  </si>
-  <si>
     <t>Autonomously Driving Surveillance Car</t>
   </si>
   <si>
@@ -1091,9 +1078,6 @@
     <t>API for communicating with DT/PT</t>
   </si>
   <si>
-    <t>Q — Human Health and Social Work Activities</t>
-  </si>
-  <si>
     <t>Healthcare System of Oslo</t>
   </si>
   <si>
@@ -1124,9 +1108,6 @@
     <t xml:space="preserve">Web API, Business Logic and Data Store of the digital twin </t>
   </si>
   <si>
-    <t>N — Administrative and Support Service Activities</t>
-  </si>
-  <si>
     <t>Finite State Machine</t>
   </si>
   <si>
@@ -1157,9 +1138,6 @@
     <t>Data-driven model</t>
   </si>
   <si>
-    <t>D — Electricity, Gas, Steam and Air Conditioning Supply</t>
-  </si>
-  <si>
     <t>Oil-immersed power transformer</t>
   </si>
   <si>
@@ -1185,6 +1163,15 @@
   </si>
   <si>
     <t>RQ3</t>
+  </si>
+  <si>
+    <t>Water Supply</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Human Health</t>
   </si>
 </sst>
 </file>
@@ -1761,6 +1748,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1770,53 +1760,50 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1832,9 +1819,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1872,7 +1859,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1978,7 +1965,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2120,7 +2107,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2130,133 +2117,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S138" sqref="S138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="153.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.26953125" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
         <v>220</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" t="s">
         <v>221</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" t="s">
         <v>222</v>
       </c>
-      <c r="F3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K3" t="s">
-        <v>224</v>
-      </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
@@ -2265,48 +2252,48 @@
         <v>17</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="O4" t="s">
         <v>16</v>
@@ -2315,16 +2302,16 @@
         <v>17</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2332,31 +2319,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -2371,10 +2358,10 @@
         <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2382,28 +2369,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -2412,80 +2399,80 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
       <c r="J8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
@@ -2497,45 +2484,45 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
         <v>27</v>
       </c>
-      <c r="S8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
         <v>17</v>
@@ -2544,174 +2531,174 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
         <v>17</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O13" t="s">
         <v>16</v>
@@ -2723,51 +2710,48 @@
         <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="O14" t="s">
         <v>16</v>
@@ -2779,51 +2763,51 @@
         <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O15" t="s">
         <v>41</v>
-      </c>
-      <c r="J15" t="s">
-        <v>207</v>
-      </c>
-      <c r="K15" t="s">
-        <v>201</v>
-      </c>
-      <c r="M15" t="s">
-        <v>209</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>42</v>
       </c>
       <c r="P15" t="s">
         <v>17</v>
@@ -2832,177 +2816,177 @@
         <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O16" t="s">
         <v>44</v>
-      </c>
-      <c r="J16" t="s">
-        <v>207</v>
-      </c>
-      <c r="K16" t="s">
-        <v>201</v>
-      </c>
-      <c r="M16" t="s">
-        <v>209</v>
-      </c>
-      <c r="O16" t="s">
-        <v>45</v>
       </c>
       <c r="Q16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
       <c r="J17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
         <v>17</v>
       </c>
       <c r="Q18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" t="s">
         <v>240</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="H19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" t="s">
         <v>241</v>
       </c>
-      <c r="E19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" t="s">
-        <v>209</v>
-      </c>
-      <c r="I19" t="s">
-        <v>243</v>
-      </c>
       <c r="J19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="O19" t="s">
         <v>16</v>
@@ -3017,92 +3001,92 @@
         <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="O20" t="s">
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q20" t="s">
         <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
         <v>16</v>
@@ -3111,45 +3095,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O22" t="s">
         <v>16</v>
@@ -3161,48 +3145,48 @@
         <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="O23" t="s">
         <v>16</v>
@@ -3214,136 +3198,136 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>13</v>
       </c>
       <c r="B25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" t="s">
         <v>245</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
         <v>246</v>
       </c>
-      <c r="E25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" t="s">
-        <v>247</v>
-      </c>
-      <c r="J25" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" t="s">
-        <v>248</v>
-      </c>
       <c r="N25" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
         <v>31</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>32</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>33</v>
       </c>
       <c r="R25" t="s">
         <v>15</v>
       </c>
       <c r="S25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" t="s">
         <v>250</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" t="s">
-        <v>228</v>
-      </c>
-      <c r="H26" t="s">
-        <v>209</v>
-      </c>
-      <c r="I26" t="s">
-        <v>252</v>
-      </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" t="s">
         <v>18</v>
@@ -3352,48 +3336,48 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>15</v>
       </c>
       <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
         <v>254</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" t="s">
-        <v>256</v>
-      </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" t="s">
         <v>31</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
       </c>
       <c r="Q27" t="s">
         <v>18</v>
@@ -3402,83 +3386,83 @@
         <v>15</v>
       </c>
       <c r="S27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
-        <v>206</v>
-      </c>
-      <c r="F28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H28" t="s">
-        <v>209</v>
-      </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P29" t="s">
         <v>17</v>
@@ -3490,142 +3474,142 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>17</v>
       </c>
       <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="J30" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" t="s">
-        <v>215</v>
-      </c>
-      <c r="K30" t="s">
-        <v>227</v>
-      </c>
-      <c r="N30" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>33</v>
-      </c>
-      <c r="R30" t="s">
-        <v>27</v>
-      </c>
-      <c r="S30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s">
         <v>16</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" t="s">
         <v>18</v>
       </c>
       <c r="R31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
         <v>258</v>
       </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" t="s">
-        <v>209</v>
-      </c>
-      <c r="I32" t="s">
-        <v>260</v>
-      </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
         <v>17</v>
@@ -3634,48 +3618,48 @@
         <v>18</v>
       </c>
       <c r="R32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>19</v>
       </c>
       <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" t="s">
         <v>258</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" t="s">
-        <v>260</v>
-      </c>
       <c r="J33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
         <v>17</v>
@@ -3684,329 +3668,329 @@
         <v>18</v>
       </c>
       <c r="R33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>20</v>
       </c>
       <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" t="s">
-        <v>202</v>
-      </c>
-      <c r="H39" t="s">
-        <v>215</v>
-      </c>
-      <c r="I39" t="s">
-        <v>79</v>
-      </c>
       <c r="J39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N39" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" t="s">
         <v>17</v>
       </c>
       <c r="Q39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N41" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
         <v>17</v>
@@ -4015,218 +3999,218 @@
         <v>18</v>
       </c>
       <c r="R41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>23</v>
       </c>
       <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
-        <v>207</v>
-      </c>
-      <c r="F44" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" t="s">
-        <v>215</v>
-      </c>
-      <c r="I44" t="s">
-        <v>103</v>
-      </c>
       <c r="J44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N44" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q44" t="s">
         <v>18</v>
       </c>
       <c r="R44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O45" t="s">
         <v>16</v>
       </c>
       <c r="P45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="s">
         <v>18</v>
       </c>
       <c r="R45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>25</v>
       </c>
       <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" t="s">
         <v>64</v>
       </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" t="s">
-        <v>242</v>
-      </c>
-      <c r="H46" t="s">
-        <v>209</v>
-      </c>
-      <c r="I46" t="s">
-        <v>66</v>
-      </c>
       <c r="J46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P46" t="s">
         <v>17</v>
@@ -4238,124 +4222,124 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" t="s">
         <v>65</v>
       </c>
-      <c r="E47" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
       <c r="J47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N49" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P49" t="s">
         <v>17</v>
@@ -4364,101 +4348,101 @@
         <v>18</v>
       </c>
       <c r="R49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>199</v>
+      </c>
+      <c r="M50" t="s">
+        <v>207</v>
+      </c>
+      <c r="N50" t="s">
+        <v>302</v>
+      </c>
+      <c r="O50" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" t="s">
         <v>114</v>
       </c>
-      <c r="J50" t="s">
-        <v>207</v>
-      </c>
-      <c r="K50" t="s">
-        <v>201</v>
-      </c>
-      <c r="M50" t="s">
-        <v>209</v>
-      </c>
-      <c r="N50" t="s">
-        <v>55</v>
-      </c>
-      <c r="O50" t="s">
-        <v>31</v>
-      </c>
-      <c r="P50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>33</v>
-      </c>
-      <c r="R50" t="s">
-        <v>27</v>
-      </c>
-      <c r="S50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="O51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P51" t="s">
         <v>17</v>
@@ -4467,80 +4451,80 @@
         <v>18</v>
       </c>
       <c r="R51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>28</v>
       </c>
       <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P53" t="s">
         <v>17</v>
@@ -4549,83 +4533,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N55" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O55" t="s">
         <v>16</v>
@@ -4634,267 +4618,267 @@
         <v>18</v>
       </c>
       <c r="R55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" t="s">
+        <v>199</v>
+      </c>
+      <c r="M58" t="s">
+        <v>207</v>
+      </c>
+      <c r="O58" t="s">
         <v>131</v>
       </c>
-      <c r="J58" t="s">
-        <v>207</v>
-      </c>
-      <c r="K58" t="s">
-        <v>201</v>
-      </c>
-      <c r="M58" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" t="s">
-        <v>133</v>
-      </c>
       <c r="P58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q58" t="s">
         <v>18</v>
       </c>
       <c r="R58" t="s">
+        <v>130</v>
+      </c>
+      <c r="S58" t="s">
         <v>132</v>
       </c>
-      <c r="S58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>31</v>
       </c>
       <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
         <v>264</v>
       </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" t="s">
-        <v>266</v>
-      </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>32</v>
       </c>
       <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" t="s">
+        <v>207</v>
+      </c>
+      <c r="I62" t="s">
         <v>135</v>
       </c>
-      <c r="C62" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" t="s">
-        <v>201</v>
-      </c>
-      <c r="H62" t="s">
-        <v>209</v>
-      </c>
-      <c r="I62" t="s">
-        <v>137</v>
-      </c>
       <c r="J62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N62" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O62" t="s">
         <v>16</v>
@@ -4906,39 +4890,39 @@
         <v>18</v>
       </c>
       <c r="R62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>32</v>
       </c>
       <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
         <v>135</v>
       </c>
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F63" t="s">
-        <v>201</v>
-      </c>
-      <c r="H63" t="s">
-        <v>209</v>
-      </c>
-      <c r="I63" t="s">
-        <v>137</v>
-      </c>
       <c r="J63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O63" t="s">
         <v>16</v>
@@ -4947,42 +4931,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>33</v>
       </c>
       <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" t="s">
+        <v>226</v>
+      </c>
+      <c r="H64" t="s">
+        <v>207</v>
+      </c>
+      <c r="I64" t="s">
         <v>139</v>
       </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" t="s">
-        <v>228</v>
-      </c>
-      <c r="H64" t="s">
-        <v>209</v>
-      </c>
-      <c r="I64" t="s">
-        <v>141</v>
-      </c>
       <c r="J64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N64" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P64" t="s">
         <v>17</v>
@@ -4994,45 +4978,45 @@
         <v>15</v>
       </c>
       <c r="S64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>34</v>
       </c>
       <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" t="s">
+        <v>226</v>
+      </c>
+      <c r="H65" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" t="s">
         <v>180</v>
       </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="J65" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" t="s">
+        <v>225</v>
+      </c>
+      <c r="N65" t="s">
+        <v>285</v>
+      </c>
+      <c r="O65" t="s">
         <v>181</v>
-      </c>
-      <c r="E65" t="s">
-        <v>206</v>
-      </c>
-      <c r="F65" t="s">
-        <v>228</v>
-      </c>
-      <c r="H65" t="s">
-        <v>209</v>
-      </c>
-      <c r="I65" t="s">
-        <v>182</v>
-      </c>
-      <c r="J65" t="s">
-        <v>215</v>
-      </c>
-      <c r="K65" t="s">
-        <v>227</v>
-      </c>
-      <c r="N65" t="s">
-        <v>19</v>
-      </c>
-      <c r="O65" t="s">
-        <v>183</v>
       </c>
       <c r="P65" t="s">
         <v>17</v>
@@ -5041,45 +5025,45 @@
         <v>18</v>
       </c>
       <c r="R65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O66" t="s">
         <v>16</v>
@@ -5088,36 +5072,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s">
         <v>16</v>
@@ -5126,36 +5110,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O68" t="s">
         <v>16</v>
@@ -5164,42 +5148,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N69" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O69" t="s">
         <v>16</v>
@@ -5208,183 +5192,183 @@
         <v>18</v>
       </c>
       <c r="R69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>36</v>
       </c>
       <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" t="s">
+        <v>207</v>
+      </c>
+      <c r="I70" t="s">
         <v>185</v>
       </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" t="s">
-        <v>186</v>
-      </c>
-      <c r="E70" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" t="s">
-        <v>201</v>
-      </c>
-      <c r="H70" t="s">
-        <v>209</v>
-      </c>
-      <c r="I70" t="s">
-        <v>187</v>
-      </c>
       <c r="J70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N70" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P70" t="s">
         <v>17</v>
       </c>
       <c r="Q70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R70" t="s">
         <v>15</v>
       </c>
       <c r="S70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F71" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" t="s">
+        <v>213</v>
+      </c>
+      <c r="K71" t="s">
         <v>228</v>
       </c>
-      <c r="H71" t="s">
-        <v>209</v>
-      </c>
-      <c r="I71" t="s">
-        <v>193</v>
-      </c>
-      <c r="J71" t="s">
-        <v>215</v>
-      </c>
-      <c r="K71" t="s">
-        <v>230</v>
-      </c>
       <c r="O71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N72" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O72" t="s">
         <v>16</v>
       </c>
       <c r="P72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q72" t="s">
         <v>18</v>
       </c>
       <c r="R72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>38</v>
       </c>
       <c r="B73" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" t="s">
+        <v>207</v>
+      </c>
+      <c r="I73" t="s">
         <v>268</v>
       </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" t="s">
-        <v>200</v>
-      </c>
-      <c r="H73" t="s">
-        <v>209</v>
-      </c>
-      <c r="I73" t="s">
-        <v>270</v>
-      </c>
       <c r="J73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O73" t="s">
         <v>16</v>
@@ -5393,36 +5377,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H74" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O74" t="s">
         <v>16</v>
@@ -5431,39 +5415,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" t="s">
         <v>269</v>
       </c>
-      <c r="E75" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" t="s">
-        <v>200</v>
-      </c>
-      <c r="H75" t="s">
-        <v>209</v>
-      </c>
-      <c r="I75" t="s">
-        <v>271</v>
-      </c>
       <c r="J75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O75" t="s">
         <v>16</v>
@@ -5472,42 +5456,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K76" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N76" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="O76" t="s">
         <v>16</v>
@@ -5519,95 +5503,95 @@
         <v>18</v>
       </c>
       <c r="R76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N77" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O77" t="s">
         <v>16</v>
       </c>
       <c r="P77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q77" t="s">
         <v>18</v>
       </c>
       <c r="R77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H78" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" t="s">
         <v>152</v>
       </c>
-      <c r="E78" t="s">
-        <v>206</v>
-      </c>
-      <c r="F78" t="s">
-        <v>228</v>
-      </c>
-      <c r="H78" t="s">
-        <v>209</v>
-      </c>
-      <c r="I78" t="s">
-        <v>154</v>
-      </c>
       <c r="J78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O78" t="s">
         <v>16</v>
@@ -5616,42 +5600,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N79" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P79" t="s">
         <v>17</v>
@@ -5660,168 +5644,168 @@
         <v>18</v>
       </c>
       <c r="R79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>41</v>
       </c>
       <c r="B81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H81" t="s">
+        <v>213</v>
+      </c>
+      <c r="I81" t="s">
         <v>155</v>
       </c>
-      <c r="C81" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" t="s">
-        <v>207</v>
-      </c>
-      <c r="F81" t="s">
-        <v>262</v>
-      </c>
-      <c r="H81" t="s">
-        <v>215</v>
-      </c>
-      <c r="I81" t="s">
-        <v>157</v>
-      </c>
       <c r="J81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q81" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>42</v>
       </c>
       <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" t="s">
+        <v>226</v>
+      </c>
+      <c r="H82" t="s">
+        <v>207</v>
+      </c>
+      <c r="I82" t="s">
         <v>159</v>
       </c>
-      <c r="C82" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" t="s">
-        <v>160</v>
-      </c>
-      <c r="E82" t="s">
-        <v>206</v>
-      </c>
-      <c r="F82" t="s">
-        <v>228</v>
-      </c>
-      <c r="H82" t="s">
-        <v>209</v>
-      </c>
-      <c r="I82" t="s">
-        <v>161</v>
-      </c>
       <c r="J82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N82" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P82" t="s">
         <v>17</v>
       </c>
       <c r="Q82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>43</v>
       </c>
       <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" t="s">
+        <v>207</v>
+      </c>
+      <c r="I83" t="s">
         <v>163</v>
       </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" t="s">
-        <v>206</v>
-      </c>
-      <c r="F83" t="s">
-        <v>228</v>
-      </c>
-      <c r="H83" t="s">
-        <v>209</v>
-      </c>
-      <c r="I83" t="s">
-        <v>165</v>
-      </c>
       <c r="J83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N83" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P83" t="s">
         <v>17</v>
@@ -5830,132 +5814,132 @@
         <v>18</v>
       </c>
       <c r="R83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K85" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" t="s">
+        <v>200</v>
+      </c>
+      <c r="H86" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" t="s">
         <v>195</v>
       </c>
-      <c r="E86" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" t="s">
-        <v>202</v>
-      </c>
-      <c r="H86" t="s">
-        <v>215</v>
-      </c>
-      <c r="I86" t="s">
-        <v>197</v>
-      </c>
       <c r="J86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q86" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -5964,272 +5948,272 @@
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N87" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O87" t="s">
         <v>16</v>
       </c>
       <c r="P87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q87" t="s">
         <v>18</v>
       </c>
       <c r="R87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N89" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="O89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P89" t="s">
         <v>17</v>
       </c>
       <c r="Q89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>46</v>
       </c>
       <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" t="s">
         <v>274</v>
       </c>
-      <c r="C90" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="I90" t="s">
         <v>275</v>
       </c>
-      <c r="E90" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" t="s">
-        <v>201</v>
-      </c>
-      <c r="H90" t="s">
-        <v>276</v>
-      </c>
-      <c r="I90" t="s">
-        <v>277</v>
-      </c>
       <c r="J90" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N90" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P90" t="s">
         <v>17</v>
       </c>
       <c r="Q90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>46</v>
       </c>
       <c r="B91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" t="s">
         <v>274</v>
       </c>
-      <c r="C91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" t="s">
-        <v>278</v>
-      </c>
-      <c r="E91" t="s">
-        <v>207</v>
-      </c>
-      <c r="F91" t="s">
-        <v>201</v>
-      </c>
-      <c r="H91" t="s">
-        <v>276</v>
-      </c>
       <c r="I91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N91" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P91" t="s">
         <v>17</v>
       </c>
       <c r="Q91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91" t="s">
         <v>15</v>
       </c>
       <c r="S91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>47</v>
       </c>
       <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" t="s">
+        <v>199</v>
+      </c>
+      <c r="H92" t="s">
+        <v>213</v>
+      </c>
+      <c r="I92" t="s">
         <v>172</v>
       </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
-        <v>173</v>
-      </c>
-      <c r="E92" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" t="s">
-        <v>201</v>
-      </c>
-      <c r="H92" t="s">
-        <v>215</v>
-      </c>
-      <c r="I92" t="s">
-        <v>174</v>
-      </c>
       <c r="J92" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N92" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="O92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q92" t="s">
         <v>18</v>
@@ -6238,45 +6222,45 @@
         <v>15</v>
       </c>
       <c r="S92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>48</v>
       </c>
       <c r="B93" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" t="s">
+        <v>199</v>
+      </c>
+      <c r="H93" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" t="s">
         <v>281</v>
       </c>
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" t="s">
-        <v>282</v>
-      </c>
-      <c r="E93" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" t="s">
-        <v>201</v>
-      </c>
-      <c r="H93" t="s">
-        <v>209</v>
-      </c>
-      <c r="I93" t="s">
-        <v>283</v>
-      </c>
       <c r="J93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N93" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="O93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P93" t="s">
         <v>17</v>
@@ -6285,45 +6269,45 @@
         <v>18</v>
       </c>
       <c r="R93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>48</v>
       </c>
       <c r="B94" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" t="s">
+        <v>204</v>
+      </c>
+      <c r="F94" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" t="s">
         <v>281</v>
       </c>
-      <c r="C94" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" t="s">
-        <v>206</v>
-      </c>
-      <c r="E94" t="s">
-        <v>206</v>
-      </c>
-      <c r="F94" t="s">
-        <v>228</v>
-      </c>
-      <c r="H94" t="s">
-        <v>209</v>
-      </c>
-      <c r="I94" t="s">
-        <v>283</v>
-      </c>
       <c r="J94" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K94" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N94" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="O94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P94" t="s">
         <v>17</v>
@@ -6332,45 +6316,45 @@
         <v>18</v>
       </c>
       <c r="R94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>48</v>
       </c>
       <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+      <c r="E95" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" t="s">
+        <v>199</v>
+      </c>
+      <c r="H95" t="s">
+        <v>207</v>
+      </c>
+      <c r="I95" t="s">
         <v>281</v>
       </c>
-      <c r="C95" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" t="s">
-        <v>284</v>
-      </c>
-      <c r="E95" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" t="s">
-        <v>201</v>
-      </c>
-      <c r="H95" t="s">
-        <v>209</v>
-      </c>
-      <c r="I95" t="s">
-        <v>283</v>
-      </c>
       <c r="J95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K95" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N95" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="O95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P95" t="s">
         <v>17</v>
@@ -6379,171 +6363,171 @@
         <v>18</v>
       </c>
       <c r="R95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>49</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I96" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N96" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O96" t="s">
         <v>16</v>
       </c>
       <c r="P96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q96" t="s">
         <v>18</v>
       </c>
       <c r="R96" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="S96" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>49</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F97" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H97" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I97" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J97" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K97" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M97" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>49</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H98" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I98" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J98" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K98" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>50</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E99" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" t="s">
+        <v>226</v>
+      </c>
+      <c r="H99" t="s">
+        <v>207</v>
+      </c>
+      <c r="I99" t="s">
+        <v>291</v>
+      </c>
+      <c r="J99" t="s">
         <v>206</v>
       </c>
-      <c r="F99" t="s">
-        <v>228</v>
-      </c>
-      <c r="H99" t="s">
-        <v>209</v>
-      </c>
-      <c r="I99" t="s">
-        <v>296</v>
-      </c>
-      <c r="J99" t="s">
-        <v>208</v>
-      </c>
       <c r="K99" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N99" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P99" t="s">
         <v>17</v>
@@ -6552,464 +6536,464 @@
         <v>18</v>
       </c>
       <c r="R99" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="S99" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
         <v>293</v>
       </c>
-      <c r="C100" t="s">
-        <v>290</v>
-      </c>
-      <c r="D100" t="s">
-        <v>299</v>
-      </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I100" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J100" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O100" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C101" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H101" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I101" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K101" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>50</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H102" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I102" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K102" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O102" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>51</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C103" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K103" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N103" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P103" t="s">
         <v>17</v>
       </c>
       <c r="Q103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R103" t="s">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>51</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I104" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O104" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>52</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I105" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P105" t="s">
         <v>17</v>
       </c>
       <c r="Q105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="S105" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>52</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I106" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>53</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
+        <v>226</v>
+      </c>
+      <c r="H107" t="s">
+        <v>207</v>
+      </c>
+      <c r="I107" t="s">
+        <v>314</v>
+      </c>
+      <c r="J107" t="s">
         <v>206</v>
       </c>
-      <c r="F107" t="s">
-        <v>228</v>
-      </c>
-      <c r="H107" t="s">
-        <v>209</v>
-      </c>
-      <c r="I107" t="s">
-        <v>322</v>
-      </c>
-      <c r="J107" t="s">
-        <v>208</v>
-      </c>
       <c r="K107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N107" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q107" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>54</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I108" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N108" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O108" t="s">
+        <v>30</v>
+      </c>
+      <c r="P108" t="s">
         <v>31</v>
       </c>
-      <c r="P108" t="s">
+      <c r="Q108" t="s">
         <v>32</v>
       </c>
-      <c r="Q108" t="s">
-        <v>33</v>
-      </c>
       <c r="R108" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="S108" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>54</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C109" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K109" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O109" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>55</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I110" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="J110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N110" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P110" t="s">
         <v>17</v>
@@ -7018,392 +7002,392 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>55</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I111" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="J111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>56</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C112" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I112" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J112" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N112" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q112" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>56</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C113" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I113" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>56</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C114" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I114" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O114" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>56</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C115" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I115" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>56</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E116" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" t="s">
+        <v>226</v>
+      </c>
+      <c r="H116" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" t="s">
+        <v>332</v>
+      </c>
+      <c r="J116" t="s">
         <v>206</v>
       </c>
-      <c r="F116" t="s">
-        <v>228</v>
-      </c>
-      <c r="H116" t="s">
-        <v>209</v>
-      </c>
-      <c r="I116" t="s">
-        <v>340</v>
-      </c>
-      <c r="J116" t="s">
-        <v>208</v>
-      </c>
       <c r="K116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>56</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" t="s">
+        <v>207</v>
+      </c>
+      <c r="I117" t="s">
+        <v>332</v>
+      </c>
+      <c r="J117" t="s">
         <v>206</v>
       </c>
-      <c r="F117" t="s">
-        <v>228</v>
-      </c>
-      <c r="H117" t="s">
-        <v>209</v>
-      </c>
-      <c r="I117" t="s">
-        <v>340</v>
-      </c>
-      <c r="J117" t="s">
-        <v>208</v>
-      </c>
       <c r="K117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O117" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>56</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H118" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I118" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O118" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>56</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I119" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K119" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O119" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>56</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E120" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H120" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I120" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J120" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K120" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>57</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I121" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J121" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N121" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P121" t="s">
         <v>17</v>
@@ -7412,625 +7396,625 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>57</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F122" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H122" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I122" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="J122" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K122" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O122" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>58</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C123" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F123" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H123" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I123" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M123" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N123" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q123" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>58</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C124" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F124" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H124" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I124" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="J124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M124" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>58</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F125" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H125" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I125" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="J125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>59</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C126" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H126" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I126" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K126" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N126" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P126" t="s">
         <v>17</v>
       </c>
       <c r="Q126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R126" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="S126" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>59</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F127" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H127" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I127" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M127" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O127" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>59</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F128" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I128" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K128" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>60</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I129" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J129" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K129" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N129" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O129" t="s">
         <v>16</v>
       </c>
       <c r="P129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q129" t="s">
         <v>18</v>
       </c>
       <c r="R129" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="S129" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>61</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C130" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H130" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I130" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J130" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K130" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L130" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N130" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P130" t="s">
         <v>17</v>
       </c>
       <c r="Q130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>61</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C131" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E131" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H131" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I131" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J131" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K131" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L131" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>61</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E132" t="s">
+        <v>204</v>
+      </c>
+      <c r="F132" t="s">
+        <v>226</v>
+      </c>
+      <c r="H132" t="s">
+        <v>207</v>
+      </c>
+      <c r="I132" t="s">
+        <v>356</v>
+      </c>
+      <c r="J132" t="s">
         <v>206</v>
       </c>
-      <c r="F132" t="s">
-        <v>228</v>
-      </c>
-      <c r="H132" t="s">
-        <v>209</v>
-      </c>
-      <c r="I132" t="s">
-        <v>365</v>
-      </c>
-      <c r="J132" t="s">
-        <v>208</v>
-      </c>
       <c r="K132" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>62</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F133" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H133" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I133" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J133" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M133" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N133" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q133" t="s">
         <v>18</v>
       </c>
       <c r="R133" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="S133" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>63</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I134" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N134" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R134" t="s">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>63</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E135" t="s">
+        <v>204</v>
+      </c>
+      <c r="F135" t="s">
+        <v>226</v>
+      </c>
+      <c r="H135" t="s">
+        <v>207</v>
+      </c>
+      <c r="I135" t="s">
+        <v>363</v>
+      </c>
+      <c r="J135" t="s">
         <v>206</v>
       </c>
-      <c r="F135" t="s">
-        <v>228</v>
-      </c>
-      <c r="H135" t="s">
-        <v>209</v>
-      </c>
-      <c r="I135" t="s">
-        <v>373</v>
-      </c>
-      <c r="J135" t="s">
-        <v>208</v>
-      </c>
       <c r="K135" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O135" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>64</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E136" t="s">
+        <v>204</v>
+      </c>
+      <c r="F136" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136" t="s">
+        <v>207</v>
+      </c>
+      <c r="I136" t="s">
+        <v>366</v>
+      </c>
+      <c r="J136" t="s">
         <v>206</v>
       </c>
-      <c r="F136" t="s">
-        <v>242</v>
-      </c>
-      <c r="H136" t="s">
-        <v>209</v>
-      </c>
-      <c r="I136" t="s">
-        <v>376</v>
-      </c>
-      <c r="J136" t="s">
-        <v>208</v>
-      </c>
       <c r="K136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M136" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N136" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O136" t="s">
         <v>16</v>
@@ -8042,48 +8026,48 @@
         <v>18</v>
       </c>
       <c r="R136" t="s">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="S136" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C137" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D137" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I137" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J137" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N137" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P137" t="s">
         <v>17</v>
@@ -8092,24 +8076,24 @@
         <v>18</v>
       </c>
       <c r="R137" t="s">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="R138" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="S138" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BFC82-D000-4D52-AB7B-DA40395BF8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31805FA-1021-4DB8-AA41-E5B6B3E397B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="376">
   <si>
     <t>Title</t>
   </si>
@@ -1112,12 +1112,6 @@
   </si>
   <si>
     <t>Nuclear Waste</t>
-  </si>
-  <si>
-    <t>Business Process of Managing CO2 Levels</t>
-  </si>
-  <si>
-    <t>Java Templates for Device Management Microservices</t>
   </si>
   <si>
     <t>Survey and Practice on Architecture and Deployment Method of Digital Twin System for Intelligent Substation</t>
@@ -1757,6 +1751,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1765,14 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2129,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="A4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="116" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,29 +2136,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="S1" s="8"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3292,6 +3286,9 @@
       <c r="N26" t="s">
         <v>299</v>
       </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
       <c r="P26" t="s">
         <v>31</v>
       </c>
@@ -3851,8 +3848,8 @@
       <c r="A40" s="5">
         <v>21</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>375</v>
+      <c r="B40" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -3870,7 +3867,7 @@
         <v>205</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>203</v>
@@ -3897,129 +3894,129 @@
         <v>26</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>22</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="H41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K41" s="11" t="s">
+      <c r="J41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M41" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="N41" s="11" t="s">
+      <c r="M41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="S41" s="11" t="s">
+      <c r="S41" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>22</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="E42" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="H42" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="11" t="s">
+      <c r="J42" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+    <row r="43" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>22</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="E43" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="H43" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="11" t="s">
+      <c r="J43" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4064,53 +4061,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+    <row r="45" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>24</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="E45" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I45" s="11" t="s">
+      <c r="H45" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K45" s="11" t="s">
+      <c r="J45" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N45" s="11" t="s">
+      <c r="M45" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4196,94 +4193,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+    <row r="48" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>26</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="E48" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="M48" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N48" s="11" t="s">
+      <c r="M48" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="49" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>26</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="H49" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K49" s="11" t="s">
+      <c r="J49" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M49" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O49" s="11" t="s">
+      <c r="M49" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S49" s="11" t="s">
+      <c r="S49" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4340,85 +4337,85 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+    <row r="51" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>28</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="11" t="s">
+      <c r="E51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I51" s="11" t="s">
+      <c r="H51" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" s="11" t="s">
+      <c r="J51" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+    <row r="52" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>28</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="E52" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K52" s="11" t="s">
+      <c r="J52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K52" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4618,56 +4615,56 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+    <row r="58" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>30</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="11" t="s">
+      <c r="E58" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I58" s="11" t="s">
+      <c r="H58" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K58" s="11" t="s">
+      <c r="J58" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M58" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N58" s="11" t="s">
+      <c r="M58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="S58" s="11" t="s">
+      <c r="S58" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4708,6 +4705,9 @@
       <c r="O59" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="Q59" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -4779,79 +4779,79 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>32</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" s="11" t="s">
+      <c r="E62" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I62" s="11" t="s">
+      <c r="H62" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J62" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K62" s="11" t="s">
+      <c r="J62" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K62" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+    <row r="63" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>32</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I63" s="11" t="s">
+      <c r="H63" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K63" s="11" t="s">
+      <c r="J63" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4905,56 +4905,56 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+    <row r="65" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>34</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I65" s="11" t="s">
+      <c r="H65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K65" s="11" t="s">
+      <c r="J65" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N65" s="11" t="s">
+      <c r="M65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S65" s="11" t="s">
+      <c r="S65" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5116,53 +5116,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
+    <row r="70" spans="1:19" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>36</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" s="11" t="s">
+      <c r="E70" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I70" s="11" t="s">
+      <c r="H70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K70" s="11" t="s">
+      <c r="J70" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K70" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S70" s="11" t="s">
+      <c r="S70" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5254,117 +5254,117 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+    <row r="73" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>38</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I73" s="11" t="s">
+      <c r="H73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="J73" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K73" s="11" t="s">
+      <c r="J73" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K73" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q73" s="11" t="s">
+      <c r="Q73" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+    <row r="74" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>38</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I74" s="11" t="s">
+      <c r="H74" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J74" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K74" s="11" t="s">
+      <c r="J74" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K74" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
+    <row r="75" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>38</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="H75" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K75" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M75" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O75" s="11" t="s">
+      <c r="M75" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O75" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5418,94 +5418,94 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+    <row r="77" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>40</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I77" s="11" t="s">
+      <c r="H77" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I77" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="M77" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N77" s="11" t="s">
+      <c r="M77" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N77" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q77" s="11" t="s">
+      <c r="Q77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R77" s="11" t="s">
+      <c r="R77" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="S77" s="11" t="s">
+      <c r="S77" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
+    <row r="78" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>40</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I78" s="11" t="s">
+      <c r="H78" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K78" s="11" t="s">
+      <c r="J78" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K78" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M78" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O78" s="11" t="s">
+      <c r="M78" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O78" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5626,47 +5626,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
+    <row r="82" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>42</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I82" s="11" t="s">
+      <c r="H82" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K82" s="11" t="s">
+      <c r="J82" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K82" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5717,164 +5717,164 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
+    <row r="84" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>44</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="11" t="s">
+      <c r="E84" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I84" s="11" t="s">
+      <c r="H84" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I84" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="M84" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N84" s="11" t="s">
+      <c r="M84" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N84" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S84" s="11" t="s">
+      <c r="S84" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
+    <row r="85" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>44</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="11" t="s">
+      <c r="E85" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I85" s="11" t="s">
+      <c r="H85" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I85" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K85" s="11" t="s">
+      <c r="J85" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K85" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
+    <row r="86" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>44</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" s="11" t="s">
+      <c r="E86" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I86" s="11" t="s">
+      <c r="H86" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I86" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K86" s="11" t="s">
+      <c r="J86" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K86" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
+    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>44</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I87" s="11" t="s">
+      <c r="H87" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I87" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J87" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K87" s="11" t="s">
+      <c r="J87" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K87" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="M87" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="O87" s="11" t="s">
+      <c r="M87" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O87" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
       <c r="R88" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S88" s="12" t="s">
+      <c r="S88" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5966,88 +5966,88 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
+    <row r="90" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>46</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E90" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" s="11" t="s">
+      <c r="E90" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K90" s="11" t="s">
+      <c r="J90" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K90" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R90" s="11" t="s">
+      <c r="R90" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S90" s="11" t="s">
+      <c r="S90" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
+    <row r="91" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>46</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91" s="11" t="s">
+      <c r="E91" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K91" s="11" t="s">
+      <c r="J91" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K91" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6098,120 +6098,120 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
+    <row r="93" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
         <v>48</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="11" t="s">
+      <c r="E93" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I93" s="11" t="s">
+      <c r="H93" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J93" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K93" s="11" t="s">
+      <c r="J93" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q93" s="11" t="s">
+      <c r="Q93" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R93" s="11" t="s">
+      <c r="R93" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
+    <row r="94" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
         <v>48</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I94" s="11" t="s">
+      <c r="H94" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K94" s="11" t="s">
+      <c r="J94" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K94" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
+    <row r="95" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
         <v>48</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" s="11" t="s">
+      <c r="E95" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I95" s="11" t="s">
+      <c r="H95" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J95" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K95" s="11" t="s">
+      <c r="J95" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
         <v>18</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>283</v>
@@ -6341,158 +6341,158 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
+    <row r="99" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
         <v>50</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I99" s="11" t="s">
+      <c r="H99" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="K99" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q99" s="11" t="s">
+      <c r="Q99" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R99" s="11" t="s">
+      <c r="R99" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S99" s="11" t="s">
+      <c r="S99" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
+    <row r="100" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
         <v>50</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F100" s="11" t="s">
+      <c r="E100" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H100" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I100" s="11" t="s">
+      <c r="H100" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="K100" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
+    <row r="101" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
         <v>50</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F101" s="11" t="s">
+      <c r="E101" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I101" s="11" t="s">
+      <c r="H101" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
+    <row r="102" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
         <v>50</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F102" s="11" t="s">
+      <c r="E102" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I102" s="11" t="s">
+      <c r="H102" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6584,91 +6584,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
+    <row r="105" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
         <v>52</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F105" s="11" t="s">
+      <c r="E105" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I105" s="11" t="s">
+      <c r="H105" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I105" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="J105" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K105" s="11" t="s">
+      <c r="J105" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K105" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M105" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N105" s="11" t="s">
+      <c r="M105" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N105" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q105" s="11" t="s">
+      <c r="Q105" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R105" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="S105" s="11" t="s">
+      <c r="R105" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="S105" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
+    <row r="106" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
         <v>52</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F106" s="11" t="s">
+      <c r="E106" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H106" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I106" s="11" t="s">
+      <c r="H106" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I106" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K106" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6713,94 +6713,94 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
+    <row r="108" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
         <v>54</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F108" s="11" t="s">
+      <c r="E108" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H108" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I108" s="11" t="s">
+      <c r="H108" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="J108" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K108" s="11" t="s">
+      <c r="J108" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K108" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M108" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N108" s="11" t="s">
+      <c r="M108" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="Q108" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S108" s="11" t="s">
+      <c r="S108" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11">
+    <row r="109" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
         <v>54</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I109" s="11" t="s">
+      <c r="H109" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="J109" s="11" t="s">
+      <c r="J109" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K109" s="11" t="s">
+      <c r="K109" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6886,321 +6886,321 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11">
+    <row r="112" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
         <v>56</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F112" s="11" t="s">
+      <c r="E112" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I112" s="11" t="s">
+      <c r="H112" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I112" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K112" s="11" t="s">
+      <c r="K112" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q112" s="11" t="s">
+      <c r="Q112" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11">
+    <row r="113" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
         <v>56</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F113" s="11" t="s">
+      <c r="E113" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H113" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I113" s="11" t="s">
+      <c r="H113" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I113" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="K113" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11">
+    <row r="114" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
         <v>56</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E114" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F114" s="11" t="s">
+      <c r="E114" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F114" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I114" s="11" t="s">
+      <c r="H114" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I114" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K114" s="11" t="s">
+      <c r="K114" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11">
+    <row r="115" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
         <v>56</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E115" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F115" s="11" t="s">
+      <c r="E115" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I115" s="11" t="s">
+      <c r="H115" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I115" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K115" s="11" t="s">
+      <c r="K115" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11">
+    <row r="116" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
         <v>56</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I116" s="11" t="s">
+      <c r="H116" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I116" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K116" s="11" t="s">
+      <c r="K116" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11">
+    <row r="117" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
         <v>56</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H117" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I117" s="11" t="s">
+      <c r="H117" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K117" s="11" t="s">
+      <c r="K117" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11">
+    <row r="118" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
         <v>56</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E118" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I118" s="11" t="s">
+      <c r="E118" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I118" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="J118" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K118" s="11" t="s">
+      <c r="K118" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O118" s="11" t="s">
+      <c r="O118" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11">
+    <row r="119" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
         <v>56</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I119" s="11" t="s">
+      <c r="H119" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K119" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11">
+    <row r="120" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
         <v>56</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I120" s="11" t="s">
+      <c r="H120" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I120" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="K120" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O120" s="11" t="s">
+      <c r="O120" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7283,123 +7283,123 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11">
+    <row r="123" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
         <v>58</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E123" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F123" s="11" t="s">
+      <c r="E123" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I123" s="11" t="s">
+      <c r="H123" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I123" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J123" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K123" s="11" t="s">
+      <c r="J123" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K123" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M123" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N123" s="11" t="s">
+      <c r="M123" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q123" s="11" t="s">
+      <c r="Q123" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11">
+    <row r="124" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
         <v>58</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E124" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F124" s="11" t="s">
+      <c r="E124" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H124" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I124" s="11" t="s">
+      <c r="H124" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I124" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="J124" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K124" s="11" t="s">
+      <c r="J124" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K124" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M124" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O124" s="11" t="s">
+      <c r="M124" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O124" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11">
+    <row r="125" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
         <v>58</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E125" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F125" s="11" t="s">
+      <c r="E125" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I125" s="11" t="s">
+      <c r="H125" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I125" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J125" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K125" s="11" t="s">
+      <c r="J125" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K125" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M125" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O125" s="11" t="s">
+      <c r="M125" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O125" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
         <v>32</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S126" s="5" t="s">
         <v>344</v>
@@ -7529,56 +7529,56 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11">
+    <row r="129" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
         <v>60</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E129" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F129" s="11" t="s">
+      <c r="E129" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H129" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I129" s="11" t="s">
+      <c r="H129" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="J129" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K129" s="11" t="s">
+      <c r="K129" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="M129" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N129" s="11" t="s">
+      <c r="M129" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O129" s="11" t="s">
+      <c r="O129" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P129" s="11" t="s">
+      <c r="P129" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q129" s="11" t="s">
+      <c r="Q129" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R129" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="S129" s="11" t="s">
+      <c r="R129" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="S129" s="8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7705,136 +7705,136 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11">
+    <row r="133" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
         <v>62</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E133" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F133" s="11" t="s">
+      <c r="E133" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H133" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I133" s="11" t="s">
+      <c r="H133" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I133" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J133" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K133" s="11" t="s">
+      <c r="K133" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M133" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N133" s="11" t="s">
+      <c r="M133" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N133" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O133" s="11" t="s">
+      <c r="O133" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P133" s="11" t="s">
+      <c r="P133" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q133" s="11" t="s">
+      <c r="Q133" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R133" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="S133" s="11" t="s">
+      <c r="R133" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="S133" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+    <row r="134" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
         <v>63</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="B134" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E134" s="5" t="s">
+      <c r="D134" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K134" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M134" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N134" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="O134" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P134" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q134" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R134" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S134" s="5" t="s">
-        <v>359</v>
+      <c r="F134" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N134" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="O134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R134" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S134" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>205</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>204</v>
@@ -7842,115 +7842,27 @@
       <c r="K135" s="5" t="s">
         <v>220</v>
       </c>
+      <c r="N135" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="O135" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11">
-        <v>64</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="J136" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M136" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N136" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="O136" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P135" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q136" s="11" t="s">
+      <c r="Q135" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R136" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="S136" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>65</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="R135" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S135" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="N137" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="O137" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P137" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q137" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R137" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S137" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B138" s="9"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S70" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -7958,8 +7870,8 @@
       <sortCondition ref="A2:A70"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S137">
-    <sortCondition ref="A2:A137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S135">
+    <sortCondition ref="A2:A135"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="C1:N1"/>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Documents\projects\mde4dts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31805FA-1021-4DB8-AA41-E5B6B3E397B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B8290-5F6B-476F-9046-D373EE3B9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$S$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$S$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,9 +144,6 @@
     <t>ground station of a spacecraft</t>
   </si>
   <si>
-    <t>DT model (=ODM model)</t>
-  </si>
-  <si>
     <t>UI-based monitoring tools</t>
   </si>
   <si>
@@ -1163,6 +1160,9 @@
   </si>
   <si>
     <t>Fischertechnik</t>
+  </si>
+  <si>
+    <t>DT Operations-dedicated Model</t>
   </si>
 </sst>
 </file>
@@ -2125,19 +2125,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="116" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="114.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -2151,18 +2155,18 @@
       <c r="M1" s="11"/>
       <c r="N1" s="12"/>
       <c r="O1" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2174,31 +2178,31 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>8</v>
@@ -2219,39 +2223,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>16</v>
@@ -2266,45 +2270,45 @@
         <v>26</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2318,25 +2322,25 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -2354,7 +2358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2368,28 +2372,28 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2403,25 +2407,25 @@
         <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>30</v>
@@ -2439,7 +2443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2453,57 +2457,57 @@
         <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
@@ -2515,10 +2519,10 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2532,28 +2536,28 @@
         <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>30</v>
@@ -2565,13 +2569,13 @@
         <v>32</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -2585,31 +2589,31 @@
         <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2620,69 +2624,69 @@
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O13" t="s">
         <v>16</v>
@@ -2697,89 +2701,89 @@
         <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>17</v>
@@ -2788,86 +2792,86 @@
         <v>18</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
       <c r="J17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -2882,77 +2886,77 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>16</v>
@@ -2967,136 +2971,136 @@
         <v>15</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O20" t="s">
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
         <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="J22" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>16</v>
@@ -3108,48 +3112,48 @@
         <v>18</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" t="s">
         <v>56</v>
       </c>
-      <c r="E23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O23" t="s">
         <v>16</v>
@@ -3161,80 +3165,80 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" t="s">
         <v>58</v>
       </c>
-      <c r="S23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" t="s">
-        <v>211</v>
-      </c>
-      <c r="I24" t="s">
-        <v>61</v>
-      </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="N25" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>30</v>
@@ -3249,42 +3253,42 @@
         <v>15</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
         <v>247</v>
       </c>
-      <c r="E26" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" t="s">
-        <v>248</v>
-      </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O26" t="s">
         <v>16</v>
@@ -3299,42 +3303,42 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="J27" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>30</v>
@@ -3349,42 +3353,42 @@
         <v>15</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O28" t="s">
         <v>30</v>
@@ -3399,77 +3403,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" t="s">
-        <v>64</v>
-      </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="J30" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>32</v>
@@ -3478,45 +3482,45 @@
         <v>26</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" t="s">
         <v>196</v>
       </c>
-      <c r="H31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" t="s">
-        <v>203</v>
-      </c>
-      <c r="K31" t="s">
-        <v>197</v>
-      </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O31" t="s">
         <v>16</v>
@@ -3531,45 +3535,45 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="J32" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>17</v>
@@ -3578,48 +3582,48 @@
         <v>18</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" t="s">
         <v>80</v>
       </c>
-      <c r="E33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" t="s">
-        <v>81</v>
-      </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
         <v>17</v>
@@ -3631,225 +3635,225 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
       </c>
       <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
         <v>88</v>
       </c>
-      <c r="E34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="J34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" t="s">
         <v>224</v>
-      </c>
-      <c r="H34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" t="s">
-        <v>225</v>
       </c>
       <c r="O34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
       </c>
       <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" t="s">
         <v>84</v>
       </c>
-      <c r="E35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" t="s">
-        <v>85</v>
-      </c>
       <c r="J35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
       </c>
       <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" t="s">
+        <v>223</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" t="s">
         <v>86</v>
       </c>
-      <c r="E36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="J36" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" t="s">
         <v>224</v>
-      </c>
-      <c r="H36" t="s">
-        <v>205</v>
-      </c>
-      <c r="I36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" t="s">
-        <v>211</v>
-      </c>
-      <c r="K36" t="s">
-        <v>225</v>
       </c>
       <c r="O36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
       </c>
       <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" t="s">
         <v>90</v>
       </c>
-      <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>197</v>
-      </c>
-      <c r="H37" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" t="s">
-        <v>91</v>
-      </c>
       <c r="J37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" t="s">
         <v>76</v>
       </c>
-      <c r="E38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" t="s">
-        <v>77</v>
-      </c>
       <c r="J38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
       <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" t="s">
         <v>82</v>
       </c>
-      <c r="E39" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" t="s">
-        <v>258</v>
-      </c>
-      <c r="H39" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
-      </c>
       <c r="J39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>21</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -3858,28 +3862,28 @@
         <v>24</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>16</v>
@@ -3894,48 +3898,48 @@
         <v>26</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="J41" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>17</v>
@@ -3944,159 +3948,159 @@
         <v>18</v>
       </c>
       <c r="R41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S41" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>23</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="J44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>24</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>16</v>
@@ -4108,42 +4112,42 @@
         <v>18</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="J46" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>30</v>
@@ -4158,80 +4162,80 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>26</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="J48" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P48" s="8" t="s">
         <v>17</v>
@@ -4240,86 +4244,86 @@
         <v>18</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>26</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="J49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I49" s="8" t="s">
+      <c r="M49" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>27</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>30</v>
@@ -4334,45 +4338,45 @@
         <v>26</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>17</v>
@@ -4384,77 +4388,77 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>28</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>17</v>
@@ -4463,197 +4467,197 @@
         <v>18</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="J54" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>29</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="J55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K55" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="M55" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>29</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>29</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>30</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="J58" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P58" s="8" t="s">
         <v>31</v>
@@ -4662,156 +4666,156 @@
         <v>18</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q59" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>31</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>31</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>32</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="J62" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>16</v>
@@ -4820,77 +4824,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>32</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>33</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="J64" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="N64" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>17</v>
@@ -4902,48 +4906,48 @@
         <v>15</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>34</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I65" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I65" s="8" t="s">
+      <c r="J65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O65" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="P65" s="8" t="s">
         <v>17</v>
@@ -4955,42 +4959,42 @@
         <v>26</v>
       </c>
       <c r="S65" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>35</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O66" s="5" t="s">
         <v>16</v>
@@ -5005,153 +5009,153 @@
         <v>26</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>35</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="J67" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>35</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="J68" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O68" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>35</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F69" s="5" t="s">
+      <c r="J69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="M69" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>36</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="J70" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P70" s="8" t="s">
         <v>17</v>
@@ -5163,42 +5167,42 @@
         <v>15</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>37</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O71" s="5" t="s">
         <v>16</v>
@@ -5210,83 +5214,83 @@
         <v>18</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>37</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="J72" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>38</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I73" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="J73" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O73" s="8" t="s">
         <v>16</v>
@@ -5295,115 +5299,115 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>38</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>38</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>39</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="N76" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O76" s="5" t="s">
         <v>16</v>
@@ -5415,136 +5419,136 @@
         <v>18</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>40</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>18</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S77" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>40</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>41</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>17</v>
@@ -5556,109 +5560,109 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>41</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>42</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="J82" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>30</v>
@@ -5670,39 +5674,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>43</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="J83" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O83" s="5" t="s">
         <v>30</v>
@@ -5717,45 +5721,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>44</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P84" s="8" t="s">
         <v>31</v>
@@ -5764,88 +5768,88 @@
         <v>18</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S84" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>44</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>44</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>44</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>12</v>
@@ -5854,66 +5858,66 @@
         <v>11</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O87" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>45</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P88" s="5" t="s">
         <v>17</v>
@@ -5922,83 +5926,83 @@
         <v>32</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S88" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>45</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="J89" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>46</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H90" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="J90" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>30</v>
@@ -6013,77 +6017,77 @@
         <v>26</v>
       </c>
       <c r="S90" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>46</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I91" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="J91" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O91" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>47</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="J92" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O92" s="5" t="s">
         <v>30</v>
@@ -6095,45 +6099,45 @@
         <v>15</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>48</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="J93" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P93" s="8" t="s">
         <v>17</v>
@@ -6145,173 +6149,173 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>48</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>48</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>49</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N96" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>16</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="5" t="s">
         <v>18</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>49</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F97" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K97" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H97" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="M97" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>49</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>23</v>
@@ -6320,63 +6324,63 @@
         <v>11</v>
       </c>
       <c r="E98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="K98" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>50</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F99" s="8" t="s">
+      <c r="J99" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K99" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="N99" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P99" s="8" t="s">
         <v>17</v>
@@ -6388,147 +6392,147 @@
         <v>26</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>50</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="J100" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K100" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>50</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="J101" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K101" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>50</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="J102" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F102" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K102" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O102" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>51</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="J103" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I103" s="5" t="s">
+      <c r="K103" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N103" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="O103" s="5" t="s">
         <v>30</v>
@@ -6540,89 +6544,89 @@
         <v>32</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>51</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="J104" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O104" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>52</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I105" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="J105" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P105" s="8" t="s">
         <v>17</v>
@@ -6631,80 +6635,80 @@
         <v>32</v>
       </c>
       <c r="R105" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S105" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>52</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I106" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="J106" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K106" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O106" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>53</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I107" s="5" t="s">
+      <c r="J107" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N107" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>30</v>
@@ -6713,42 +6717,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>54</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I108" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>315</v>
-      </c>
       <c r="J108" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8" t="s">
         <v>30</v>
@@ -6763,86 +6767,86 @@
         <v>26</v>
       </c>
       <c r="S108" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>54</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="J109" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O109" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>55</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>17</v>
@@ -6851,395 +6855,395 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>55</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="J111" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="K111" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>56</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I112" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="J112" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F112" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K112" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q112" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>56</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E113" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J113" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K113" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>56</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E114" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J114" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F114" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K114" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>56</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E115" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J115" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J115" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K115" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>56</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I116" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F116" s="8" t="s">
+      <c r="J116" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="J116" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="O116" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>56</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F117" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K117" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="O117" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>56</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I118" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="J118" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>56</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>56</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>57</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="J121" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P121" s="5" t="s">
         <v>17</v>
@@ -7248,197 +7252,197 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>57</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I122" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="J122" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>58</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I123" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F123" s="8" t="s">
+      <c r="J123" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K123" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="M123" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q123" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>58</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F124" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K124" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H124" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="M124" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>58</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F125" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K125" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H125" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="M125" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>59</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D126" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I126" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="J126" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="K126" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P126" s="5" t="s">
         <v>17</v>
@@ -7447,124 +7451,124 @@
         <v>32</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>59</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K127" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H127" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="M127" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O127" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>59</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>60</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I129" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="J129" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F129" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="K129" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O129" s="8" t="s">
         <v>16</v>
@@ -7576,51 +7580,51 @@
         <v>18</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S129" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>61</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D130" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I130" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="J130" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="K130" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P130" s="5" t="s">
         <v>17</v>
@@ -7629,121 +7633,121 @@
         <v>32</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>61</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E131" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="K131" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>61</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>62</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I133" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E133" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="J133" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P133" s="8" t="s">
         <v>31</v>
@@ -7752,48 +7756,48 @@
         <v>18</v>
       </c>
       <c r="R133" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S133" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>63</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I134" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E134" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>361</v>
-      </c>
       <c r="J134" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O134" s="8" t="s">
         <v>16</v>
@@ -7805,45 +7809,45 @@
         <v>18</v>
       </c>
       <c r="R134" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S134" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>64</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I135" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="J135" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="K135" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O135" s="5" t="s">
         <v>30</v>
@@ -7855,17 +7859,17 @@
         <v>18</v>
       </c>
       <c r="R135" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S70" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:S135" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S70">
       <sortCondition ref="A2:A70"/>
     </sortState>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Documents\projects\mde4dts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B8290-5F6B-476F-9046-D373EE3B9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D80C554-A85B-4573-A76F-0220C0F5FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="378">
   <si>
     <t>Title</t>
   </si>
@@ -739,9 +739,6 @@
     <t>structure model</t>
   </si>
   <si>
-    <t>Administrative</t>
-  </si>
-  <si>
     <t>Closed-Loop Systems Engineering (CLOSE): Integrating Experimentable Digital Twins with the Model-Driven Engineering Process</t>
   </si>
   <si>
@@ -1048,15 +1045,6 @@
     <t>AAS Meta-Model in Domain-Specific Language</t>
   </si>
   <si>
-    <t>XSD</t>
-  </si>
-  <si>
-    <t>JSON Schema</t>
-  </si>
-  <si>
-    <t>RSDF</t>
-  </si>
-  <si>
     <t>Model-based digital twins of medicine dispensers for healthcare IoT applications</t>
   </si>
   <si>
@@ -1163,6 +1151,24 @@
   </si>
   <si>
     <t>DT Operations-dedicated Model</t>
+  </si>
+  <si>
+    <t>data storage</t>
+  </si>
+  <si>
+    <t>RSFD Script</t>
+  </si>
+  <si>
+    <t>JSON Schema Script</t>
+  </si>
+  <si>
+    <t>XSD Script</t>
+  </si>
+  <si>
+    <t>Adminstration</t>
+  </si>
+  <si>
+    <t>Adminstration activities</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1750,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1759,6 +1765,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2126,45 +2133,45 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="114.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="114.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -2223,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2255,7 +2262,7 @@
         <v>219</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>16</v>
@@ -2273,7 +2280,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2337,10 +2344,10 @@
         <v>210</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="N5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -2358,7 +2365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>30</v>
@@ -2443,7 +2450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>222</v>
       </c>
       <c r="N9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
@@ -2522,7 +2529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>204</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>30</v>
@@ -2575,7 +2582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2624,7 +2631,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>202</v>
@@ -2648,7 +2655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2686,7 +2693,7 @@
         <v>204</v>
       </c>
       <c r="N13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O13" t="s">
         <v>16</v>
@@ -2704,7 +2711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2745,7 +2752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -2780,7 +2787,7 @@
         <v>204</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>40</v>
@@ -2792,13 +2799,13 @@
         <v>18</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>234</v>
+        <v>376</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>204</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -2886,7 +2893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2924,30 +2931,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>201</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>210</v>
@@ -2956,7 +2963,7 @@
         <v>222</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>16</v>
@@ -2971,10 +2978,10 @@
         <v>15</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3009,7 +3016,7 @@
         <v>204</v>
       </c>
       <c r="N20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O20" t="s">
         <v>16</v>
@@ -3024,7 +3031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -3062,7 +3069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -3094,13 +3101,13 @@
         <v>201</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>204</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>16</v>
@@ -3118,7 +3125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>210</v>
       </c>
       <c r="N23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O23" t="s">
         <v>16</v>
@@ -3171,7 +3178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3206,18 +3213,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>202</v>
@@ -3229,16 +3236,16 @@
         <v>204</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="N25" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>30</v>
@@ -3253,21 +3260,21 @@
         <v>15</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E26" t="s">
         <v>201</v>
@@ -3279,16 +3286,16 @@
         <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
         <v>210</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s">
         <v>16</v>
@@ -3303,21 +3310,21 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>202</v>
@@ -3329,16 +3336,16 @@
         <v>204</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>210</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>30</v>
@@ -3353,10 +3360,10 @@
         <v>15</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>201</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" t="s">
         <v>204</v>
@@ -3388,7 +3395,7 @@
         <v>222</v>
       </c>
       <c r="N28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O28" t="s">
         <v>30</v>
@@ -3403,7 +3410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H29" t="s">
         <v>204</v>
@@ -3438,7 +3445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>17</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>222</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>30</v>
@@ -3485,7 +3492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>204</v>
       </c>
       <c r="N31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O31" t="s">
         <v>16</v>
@@ -3538,30 +3545,30 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>201</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>204</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>210</v>
@@ -3570,7 +3577,7 @@
         <v>222</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>40</v>
@@ -3585,10 +3592,10 @@
         <v>57</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>225</v>
       </c>
       <c r="N33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
@@ -3638,7 +3645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3673,7 +3680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3778,7 +3785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H39" t="s">
         <v>210</v>
@@ -3848,12 +3855,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>21</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -3871,7 +3878,7 @@
         <v>204</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>202</v>
@@ -3883,7 +3890,7 @@
         <v>204</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>16</v>
@@ -3898,10 +3905,10 @@
         <v>26</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>22</v>
       </c>
@@ -3930,13 +3937,13 @@
         <v>202</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>210</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>40</v>
@@ -3954,7 +3961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>22</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>202</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>210</v>
@@ -3989,7 +3996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>22</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>23</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>225</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>40</v>
@@ -4065,7 +4072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>24</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>202</v>
@@ -4100,7 +4107,7 @@
         <v>204</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>16</v>
@@ -4115,7 +4122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>25</v>
       </c>
@@ -4132,7 +4139,7 @@
         <v>201</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>204</v>
@@ -4147,7 +4154,7 @@
         <v>222</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>30</v>
@@ -4162,7 +4169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>25</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>201</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>204</v>
@@ -4197,7 +4204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>26</v>
       </c>
@@ -4232,7 +4239,7 @@
         <v>204</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>40</v>
@@ -4247,7 +4254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>26</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>27</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>204</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>30</v>
@@ -4341,7 +4348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>225</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>40</v>
@@ -4388,7 +4395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4423,7 +4430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>29</v>
       </c>
@@ -4455,7 +4462,7 @@
         <v>225</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>40</v>
@@ -4473,7 +4480,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>29</v>
       </c>
@@ -4511,7 +4518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>29</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>29</v>
       </c>
@@ -4584,7 +4591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>29</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>202</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>210</v>
@@ -4619,7 +4626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>30</v>
       </c>
@@ -4654,7 +4661,7 @@
         <v>204</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>129</v>
@@ -4672,12 +4679,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>23</v>
@@ -4689,13 +4696,13 @@
         <v>202</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>210</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>210</v>
@@ -4704,7 +4711,7 @@
         <v>209</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>40</v>
@@ -4713,18 +4720,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>31</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>201</v>
@@ -4736,7 +4743,7 @@
         <v>204</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>210</v>
@@ -4748,18 +4755,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>31</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>202</v>
@@ -4771,7 +4778,7 @@
         <v>204</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>210</v>
@@ -4783,7 +4790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>32</v>
       </c>
@@ -4815,7 +4822,7 @@
         <v>225</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>16</v>
@@ -4824,7 +4831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>32</v>
       </c>
@@ -4859,7 +4866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>33</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>224</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O64" s="5" t="s">
         <v>40</v>
@@ -4909,7 +4916,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>34</v>
       </c>
@@ -4944,7 +4951,7 @@
         <v>204</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>178</v>
@@ -4962,7 +4969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>195</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O66" s="5" t="s">
         <v>16</v>
@@ -5012,7 +5019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>35</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>35</v>
       </c>
@@ -5082,7 +5089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>35</v>
       </c>
@@ -5120,7 +5127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>36</v>
       </c>
@@ -5149,10 +5156,10 @@
         <v>210</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O70" s="8" t="s">
         <v>43</v>
@@ -5170,7 +5177,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>37</v>
       </c>
@@ -5202,7 +5209,7 @@
         <v>225</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O71" s="5" t="s">
         <v>16</v>
@@ -5220,7 +5227,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>37</v>
       </c>
@@ -5258,18 +5265,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>38</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>217</v>
@@ -5281,7 +5288,7 @@
         <v>204</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>210</v>
@@ -5290,7 +5297,7 @@
         <v>224</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O73" s="8" t="s">
         <v>16</v>
@@ -5299,18 +5306,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>38</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>217</v>
@@ -5322,7 +5329,7 @@
         <v>204</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>210</v>
@@ -5334,18 +5341,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>38</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>217</v>
@@ -5357,7 +5364,7 @@
         <v>204</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>217</v>
@@ -5372,12 +5379,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>39</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>28</v>
@@ -5395,7 +5402,7 @@
         <v>204</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>210</v>
@@ -5407,7 +5414,7 @@
         <v>224</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O76" s="5" t="s">
         <v>16</v>
@@ -5422,7 +5429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>40</v>
       </c>
@@ -5457,7 +5464,7 @@
         <v>204</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>16</v>
@@ -5469,13 +5476,13 @@
         <v>18</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="S77" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>40</v>
       </c>
@@ -5513,7 +5520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>41</v>
       </c>
@@ -5545,7 +5552,7 @@
         <v>219</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O79" s="5" t="s">
         <v>40</v>
@@ -5560,7 +5567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>41</v>
       </c>
@@ -5595,7 +5602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>41</v>
       </c>
@@ -5612,7 +5619,7 @@
         <v>202</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>210</v>
@@ -5630,7 +5637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>42</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>222</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>30</v>
@@ -5674,7 +5681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>43</v>
       </c>
@@ -5706,7 +5713,7 @@
         <v>222</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O83" s="5" t="s">
         <v>30</v>
@@ -5721,7 +5728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>44</v>
       </c>
@@ -5750,13 +5757,13 @@
         <v>201</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>204</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O84" s="8" t="s">
         <v>40</v>
@@ -5774,7 +5781,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>44</v>
       </c>
@@ -5809,7 +5816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>44</v>
       </c>
@@ -5844,7 +5851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>44</v>
       </c>
@@ -5882,7 +5889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>45</v>
       </c>
@@ -5914,7 +5921,7 @@
         <v>224</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O88" s="5" t="s">
         <v>40</v>
@@ -5932,7 +5939,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>45</v>
       </c>
@@ -5970,18 +5977,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>46</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>202</v>
@@ -5990,10 +5997,10 @@
         <v>196</v>
       </c>
       <c r="H90" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I90" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>210</v>
@@ -6002,7 +6009,7 @@
         <v>219</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>30</v>
@@ -6020,18 +6027,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>46</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>202</v>
@@ -6040,10 +6047,10 @@
         <v>196</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>210</v>
@@ -6055,7 +6062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>47</v>
       </c>
@@ -6084,10 +6091,10 @@
         <v>210</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O92" s="5" t="s">
         <v>30</v>
@@ -6102,18 +6109,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>48</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>202</v>
@@ -6125,7 +6132,7 @@
         <v>204</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>210</v>
@@ -6134,7 +6141,7 @@
         <v>222</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O93" s="8" t="s">
         <v>40</v>
@@ -6149,12 +6156,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>48</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>28</v>
@@ -6172,7 +6179,7 @@
         <v>204</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>210</v>
@@ -6184,18 +6191,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>48</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>202</v>
@@ -6207,7 +6214,7 @@
         <v>204</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>210</v>
@@ -6219,12 +6226,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>49</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>12</v>
@@ -6242,7 +6249,7 @@
         <v>204</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>201</v>
@@ -6254,7 +6261,7 @@
         <v>204</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>16</v>
@@ -6266,24 +6273,24 @@
         <v>18</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>49</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>201</v>
@@ -6295,7 +6302,7 @@
         <v>204</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>201</v>
@@ -6310,12 +6317,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>49</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>23</v>
@@ -6333,7 +6340,7 @@
         <v>210</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>203</v>
@@ -6345,18 +6352,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>50</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>201</v>
@@ -6368,7 +6375,7 @@
         <v>204</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>203</v>
@@ -6377,7 +6384,7 @@
         <v>224</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8" t="s">
         <v>40</v>
@@ -6392,21 +6399,21 @@
         <v>26</v>
       </c>
       <c r="S99" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>50</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>202</v>
@@ -6418,7 +6425,7 @@
         <v>204</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>203</v>
@@ -6430,18 +6437,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>50</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>202</v>
@@ -6453,7 +6460,7 @@
         <v>210</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>203</v>
@@ -6465,18 +6472,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>50</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>202</v>
@@ -6488,7 +6495,7 @@
         <v>204</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>203</v>
@@ -6500,18 +6507,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>51</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>202</v>
@@ -6523,7 +6530,7 @@
         <v>204</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>203</v>
@@ -6532,7 +6539,7 @@
         <v>219</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O103" s="5" t="s">
         <v>30</v>
@@ -6547,21 +6554,21 @@
         <v>57</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>51</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>202</v>
@@ -6573,7 +6580,7 @@
         <v>204</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>202</v>
@@ -6588,18 +6595,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>52</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>202</v>
@@ -6611,7 +6618,7 @@
         <v>204</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>202</v>
@@ -6623,7 +6630,7 @@
         <v>204</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8" t="s">
         <v>40</v>
@@ -6635,24 +6642,24 @@
         <v>32</v>
       </c>
       <c r="R105" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="S105" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>52</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>202</v>
@@ -6664,7 +6671,7 @@
         <v>204</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>203</v>
@@ -6676,18 +6683,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>53</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>201</v>
@@ -6699,7 +6706,7 @@
         <v>204</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>203</v>
@@ -6708,7 +6715,7 @@
         <v>222</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>30</v>
@@ -6717,18 +6724,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>54</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>202</v>
@@ -6740,7 +6747,7 @@
         <v>204</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>202</v>
@@ -6752,7 +6759,7 @@
         <v>204</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8" t="s">
         <v>30</v>
@@ -6767,21 +6774,21 @@
         <v>26</v>
       </c>
       <c r="S108" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>54</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>217</v>
@@ -6790,13 +6797,13 @@
         <v>223</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>204</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>203</v>
@@ -6808,12 +6815,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>55</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>12</v>
@@ -6831,7 +6838,7 @@
         <v>204</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>202</v>
@@ -6843,7 +6850,7 @@
         <v>204</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O110" s="5" t="s">
         <v>40</v>
@@ -6855,18 +6862,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>55</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>202</v>
@@ -6878,7 +6885,7 @@
         <v>204</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>203</v>
@@ -6890,18 +6897,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>56</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>202</v>
@@ -6913,7 +6920,7 @@
         <v>204</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J112" s="8" t="s">
         <v>203</v>
@@ -6922,7 +6929,7 @@
         <v>209</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8" t="s">
         <v>40</v>
@@ -6931,18 +6938,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>56</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>202</v>
@@ -6954,7 +6961,7 @@
         <v>210</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>203</v>
@@ -6966,12 +6973,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>56</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>23</v>
@@ -6983,13 +6990,13 @@
         <v>202</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>210</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>203</v>
@@ -7001,18 +7008,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>56</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>202</v>
@@ -7024,7 +7031,7 @@
         <v>204</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>203</v>
@@ -7036,18 +7043,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>56</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>201</v>
@@ -7059,7 +7066,7 @@
         <v>204</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>203</v>
@@ -7071,18 +7078,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>56</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>201</v>
@@ -7094,7 +7101,7 @@
         <v>204</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>203</v>
@@ -7106,27 +7113,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>56</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I118" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>217</v>
@@ -7138,18 +7145,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>56</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>201</v>
@@ -7161,7 +7168,7 @@
         <v>204</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>217</v>
@@ -7173,18 +7180,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>56</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>201</v>
@@ -7196,7 +7203,7 @@
         <v>204</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>217</v>
@@ -7208,18 +7215,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>57</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>217</v>
@@ -7231,7 +7238,7 @@
         <v>204</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>202</v>
@@ -7240,7 +7247,7 @@
         <v>195</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>40</v>
@@ -7252,18 +7259,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>57</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>202</v>
@@ -7275,7 +7282,7 @@
         <v>204</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>202</v>
@@ -7287,18 +7294,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>58</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>202</v>
@@ -7310,19 +7317,19 @@
         <v>204</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>204</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O123" s="8" t="s">
         <v>40</v>
@@ -7331,18 +7338,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>58</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>202</v>
@@ -7354,13 +7361,13 @@
         <v>204</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>204</v>
@@ -7369,18 +7376,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>58</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>202</v>
@@ -7391,14 +7398,14 @@
       <c r="H125" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="I125" s="8" t="s">
-        <v>339</v>
+      <c r="I125" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>204</v>
@@ -7407,18 +7414,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>59</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>202</v>
@@ -7430,7 +7437,7 @@
         <v>204</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>203</v>
@@ -7439,7 +7446,7 @@
         <v>219</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O126" s="5" t="s">
         <v>40</v>
@@ -7451,24 +7458,24 @@
         <v>32</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>59</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>202</v>
@@ -7480,7 +7487,7 @@
         <v>204</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>202</v>
@@ -7495,18 +7502,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>59</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>202</v>
@@ -7518,7 +7525,7 @@
         <v>204</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>202</v>
@@ -7533,18 +7540,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>60</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>202</v>
@@ -7556,7 +7563,7 @@
         <v>204</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>203</v>
@@ -7568,7 +7575,7 @@
         <v>204</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O129" s="8" t="s">
         <v>16</v>
@@ -7580,24 +7587,24 @@
         <v>18</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="S129" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>61</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>202</v>
@@ -7609,7 +7616,7 @@
         <v>204</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>203</v>
@@ -7621,7 +7628,7 @@
         <v>208</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O130" s="5" t="s">
         <v>40</v>
@@ -7633,15 +7640,15 @@
         <v>32</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>61</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>23</v>
@@ -7659,7 +7666,7 @@
         <v>204</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>203</v>
@@ -7674,18 +7681,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>61</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>201</v>
@@ -7697,7 +7704,7 @@
         <v>204</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>203</v>
@@ -7709,18 +7716,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>62</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>202</v>
@@ -7732,7 +7739,7 @@
         <v>204</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>217</v>
@@ -7744,7 +7751,7 @@
         <v>204</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O133" s="8" t="s">
         <v>40</v>
@@ -7756,48 +7763,48 @@
         <v>18</v>
       </c>
       <c r="R133" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S133" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>63</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>201</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>204</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>203</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>204</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O134" s="8" t="s">
         <v>16</v>
@@ -7812,21 +7819,21 @@
         <v>94</v>
       </c>
       <c r="S134" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>64</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>202</v>
@@ -7838,7 +7845,7 @@
         <v>204</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>203</v>
@@ -7847,7 +7854,7 @@
         <v>219</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O135" s="5" t="s">
         <v>30</v>
@@ -7862,10 +7869,10 @@
         <v>57</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
     </row>
   </sheetData>
@@ -7884,5 +7891,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA252110-CF54-400A-A449-B4EE11768C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721834E2-564A-472F-9900-A25E0C5F86B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="450">
   <si>
     <t>Title</t>
   </si>
@@ -1300,9 +1300,6 @@
     <t>S45</t>
   </si>
   <si>
-    <t>S61</t>
-  </si>
-  <si>
     <t>S6</t>
   </si>
   <si>
@@ -1315,9 +1312,6 @@
     <t>S13</t>
   </si>
   <si>
-    <t>S27</t>
-  </si>
-  <si>
     <t>S40</t>
   </si>
   <si>
@@ -1382,6 +1376,15 @@
   </si>
   <si>
     <t>maintenance platform</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S66</t>
   </si>
 </sst>
 </file>
@@ -2344,21 +2347,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O137" sqref="O137"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="114.3125" customWidth="1"/>
-    <col min="4" max="4" width="42.1015625" customWidth="1"/>
+    <col min="3" max="3" width="114.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="10" t="s">
         <v>356</v>
       </c>
@@ -2383,7 +2386,7 @@
       </c>
       <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -2445,12 +2448,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>209</v>
@@ -2498,12 +2501,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>209</v>
@@ -2536,12 +2539,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2589,12 +2592,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2627,12 +2630,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -2680,12 +2683,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
@@ -2718,12 +2721,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
         <v>220</v>
@@ -2765,7 +2768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2900,12 +2903,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
         <v>224</v>
@@ -2959,12 +2962,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
         <v>224</v>
@@ -3003,12 +3006,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
@@ -3059,12 +3062,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>35</v>
@@ -3100,7 +3103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3206,12 +3209,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -3247,12 +3250,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>165</v>
@@ -3306,7 +3309,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3400,12 +3403,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>233</v>
@@ -3453,7 +3456,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -3559,12 +3562,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C26" t="s">
         <v>96</v>
@@ -3609,12 +3612,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
@@ -3647,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -3697,12 +3700,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -3753,7 +3756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>19</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>21</v>
       </c>
@@ -4143,12 +4146,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>22</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>85</v>
@@ -4199,12 +4202,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>22</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>85</v>
@@ -4237,12 +4240,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>22</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>85</v>
@@ -4275,7 +4278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>23</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>24</v>
       </c>
@@ -4372,12 +4375,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>55</v>
@@ -4422,12 +4425,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>55</v>
@@ -4460,7 +4463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>26</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>26</v>
       </c>
@@ -4557,12 +4560,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>27</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>103</v>
@@ -4613,7 +4616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>28</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>28</v>
       </c>
@@ -4701,12 +4704,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>29</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>110</v>
@@ -4754,12 +4757,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>29</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>110</v>
@@ -4795,12 +4798,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>110</v>
@@ -4836,12 +4839,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>110</v>
@@ -4874,12 +4877,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>29</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>110</v>
@@ -4912,12 +4915,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>30</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>119</v>
@@ -4968,7 +4971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>31</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>31</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>31</v>
       </c>
@@ -5088,12 +5091,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>32</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>125</v>
@@ -5132,12 +5135,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>32</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>125</v>
@@ -5170,7 +5173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>33</v>
       </c>
@@ -5223,12 +5226,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>34</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>169</v>
@@ -5279,12 +5282,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>35</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>133</v>
@@ -5332,12 +5335,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>35</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>133</v>
@@ -5370,12 +5373,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>35</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>133</v>
@@ -5408,12 +5411,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>35</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>133</v>
@@ -5449,12 +5452,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>36</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>174</v>
@@ -5502,12 +5505,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>37</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>178</v>
@@ -5555,12 +5558,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>37</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>178</v>
@@ -5596,12 +5599,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>38</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>256</v>
@@ -5640,12 +5643,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>38</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>256</v>
@@ -5678,12 +5681,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>38</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>256</v>
@@ -5719,12 +5722,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>39</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>260</v>
@@ -5772,12 +5775,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>40</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>141</v>
@@ -5828,12 +5831,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>40</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>141</v>
@@ -5869,7 +5872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>41</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>41</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>41</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>42</v>
       </c>
@@ -6042,12 +6045,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>43</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>152</v>
@@ -6092,12 +6095,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>44</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>183</v>
@@ -6148,12 +6151,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>44</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>183</v>
@@ -6186,12 +6189,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>44</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>183</v>
@@ -6224,12 +6227,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>44</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>183</v>
@@ -6265,12 +6268,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>45</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>155</v>
@@ -6318,12 +6321,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>45</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>155</v>
@@ -6359,12 +6362,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>46</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>262</v>
@@ -6412,12 +6415,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>46</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>262</v>
@@ -6450,12 +6453,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>47</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>161</v>
@@ -6500,12 +6503,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>48</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>268</v>
@@ -6550,12 +6553,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>48</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>268</v>
@@ -6588,12 +6591,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>48</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>268</v>
@@ -6626,12 +6629,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>49</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>272</v>
@@ -6682,12 +6685,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>49</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>272</v>
@@ -6723,12 +6726,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>49</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>272</v>
@@ -6761,12 +6764,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>50</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>278</v>
@@ -6814,12 +6817,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>50</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>278</v>
@@ -6852,12 +6855,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>50</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>278</v>
@@ -6890,12 +6893,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>50</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>278</v>
@@ -6928,12 +6931,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>51</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>288</v>
@@ -6981,12 +6984,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>51</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>288</v>
@@ -7022,12 +7025,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>52</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>295</v>
@@ -7078,12 +7081,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>52</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>295</v>
@@ -7116,12 +7119,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>53</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>301</v>
@@ -7160,12 +7163,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>54</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>305</v>
@@ -7216,12 +7219,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>54</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>305</v>
@@ -7257,12 +7260,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>55</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>311</v>
@@ -7307,12 +7310,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>55</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>311</v>
@@ -7345,12 +7348,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>56</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>315</v>
@@ -7389,12 +7392,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>56</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>315</v>
@@ -7427,12 +7430,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>56</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>315</v>
@@ -7465,12 +7468,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>56</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>315</v>
@@ -7503,12 +7506,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>56</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>315</v>
@@ -7541,12 +7544,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>56</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>315</v>
@@ -7579,12 +7582,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>56</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>315</v>
@@ -7614,12 +7617,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>56</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>315</v>
@@ -7652,12 +7655,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>56</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>315</v>
@@ -7690,12 +7693,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>57</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>324</v>
@@ -7737,12 +7740,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>57</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>324</v>
@@ -7775,12 +7778,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>58</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>328</v>
@@ -7822,12 +7825,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>58</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>328</v>
@@ -7863,12 +7866,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>58</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>328</v>
@@ -7904,12 +7907,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>59</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>330</v>
@@ -7957,12 +7960,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>59</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>330</v>
@@ -7998,12 +8001,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>59</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>330</v>
@@ -8039,12 +8042,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>60</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>336</v>
@@ -8095,12 +8098,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>61</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>340</v>
@@ -8148,12 +8151,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>61</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>340</v>
@@ -8189,12 +8192,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>61</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>340</v>
@@ -8227,12 +8230,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>62</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>344</v>
@@ -8283,12 +8286,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>63</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>348</v>
@@ -8339,12 +8342,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>64</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>352</v>
@@ -8392,18 +8395,21 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>65</v>
       </c>
+      <c r="B134" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="C134" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F134" t="s">
         <v>195</v>
@@ -8415,7 +8421,7 @@
         <v>198</v>
       </c>
       <c r="J134" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K134" t="s">
         <v>196</v>
@@ -8430,33 +8436,36 @@
         <v>304</v>
       </c>
       <c r="P134" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q134" s="7" t="s">
         <v>29</v>
       </c>
       <c r="R134" t="s">
+        <v>440</v>
+      </c>
+      <c r="S134" t="s">
+        <v>441</v>
+      </c>
+      <c r="T134" t="s">
         <v>442</v>
       </c>
-      <c r="S134" t="s">
-        <v>443</v>
-      </c>
-      <c r="T134" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>65</v>
       </c>
+      <c r="B135" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="C135" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E135" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F135" t="s">
         <v>195</v>
@@ -8468,7 +8477,7 @@
         <v>198</v>
       </c>
       <c r="J135" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K135" t="s">
         <v>197</v>
@@ -8478,28 +8487,30 @@
       </c>
       <c r="N135" s="7"/>
       <c r="P135" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q135" s="7" t="s">
         <v>29</v>
       </c>
       <c r="R135" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>66</v>
       </c>
-      <c r="B136" s="5"/>
+      <c r="B136" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="C136" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>195</v>
@@ -8512,7 +8523,7 @@
         <v>198</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>197</v>
@@ -8526,7 +8537,7 @@
         <v>304</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q136" s="5" t="s">
         <v>15</v>
@@ -8536,7 +8547,7 @@
       </c>
       <c r="S136" s="5"/>
       <c r="T136" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8545,8 +8556,8 @@
       <sortCondition ref="A2:A68"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T133">
-    <sortCondition ref="A2:A133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T136">
+    <sortCondition ref="A2:A136"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="D1:O1"/>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Repos\mde4dts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721834E2-564A-472F-9900-A25E0C5F86B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0923C6-EBDC-4D71-AA6F-FAF2A2581F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="450">
   <si>
     <t>Title</t>
   </si>
@@ -1354,12 +1354,6 @@
     <t>simulation model</t>
   </si>
   <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>as-designed</t>
-  </si>
-  <si>
     <t>Human heath and social work activities</t>
   </si>
   <si>
@@ -1385,6 +1379,12 @@
   </si>
   <si>
     <t>S66</t>
+  </si>
+  <si>
+    <t>Soft Gripper System</t>
+  </si>
+  <si>
+    <t>Storage System</t>
   </si>
 </sst>
 </file>
@@ -2347,9 +2347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>209</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>209</v>
@@ -4321,6 +4321,9 @@
       <c r="R42" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="S42" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
@@ -4565,7 +4568,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>103</v>
@@ -5604,7 +5607,7 @@
         <v>38</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>256</v>
@@ -5648,7 +5651,7 @@
         <v>38</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>256</v>
@@ -5686,7 +5689,7 @@
         <v>38</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>256</v>
@@ -6044,6 +6047,12 @@
       <c r="R80" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="S80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T80" s="7" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -7739,6 +7748,12 @@
       <c r="R119" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="S119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T119" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
@@ -8421,7 +8436,7 @@
         <v>198</v>
       </c>
       <c r="J134" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K134" t="s">
         <v>196</v>
@@ -8436,19 +8451,19 @@
         <v>304</v>
       </c>
       <c r="P134" t="s">
-        <v>439</v>
+        <v>28</v>
       </c>
       <c r="Q134" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R134" t="s">
+      <c r="R134" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S134" t="s">
+        <v>439</v>
+      </c>
+      <c r="T134" t="s">
         <v>440</v>
-      </c>
-      <c r="S134" t="s">
-        <v>441</v>
-      </c>
-      <c r="T134" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -8477,7 +8492,7 @@
         <v>198</v>
       </c>
       <c r="J135" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K135" t="s">
         <v>197</v>
@@ -8487,13 +8502,10 @@
       </c>
       <c r="N135" s="7"/>
       <c r="P135" t="s">
-        <v>439</v>
+        <v>28</v>
       </c>
       <c r="Q135" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="R135" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -8523,7 +8535,7 @@
         <v>198</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>197</v>
@@ -8537,7 +8549,7 @@
         <v>304</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>439</v>
+        <v>28</v>
       </c>
       <c r="Q136" s="5" t="s">
         <v>15</v>
@@ -8547,7 +8559,7 @@
       </c>
       <c r="S136" s="5"/>
       <c r="T136" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/04 extraction consolidation results.xlsx
+++ b/04 extraction consolidation results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Repos\mde4dts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0923C6-EBDC-4D71-AA6F-FAF2A2581F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5D594-5D01-4EF2-976B-60EDBB265BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="450">
   <si>
     <t>Title</t>
   </si>
@@ -2347,21 +2347,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="114.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="114.265625" customWidth="1"/>
+    <col min="4" max="4" width="42.1328125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D1" s="10" t="s">
         <v>356</v>
       </c>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>16</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>18</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>19</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>20</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>20</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>20</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>21</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>22</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>22</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>22</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>23</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>24</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>25</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>25</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>26</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>26</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>27</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>28</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>28</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>29</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>29</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>29</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>29</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5">
         <v>29</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>30</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5">
         <v>31</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5">
         <v>31</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5">
         <v>31</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="7">
         <v>32</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="7">
         <v>32</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5">
         <v>33</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="7">
         <v>34</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5">
         <v>35</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5">
         <v>35</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5">
         <v>35</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="7">
         <v>36</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5">
         <v>37</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5">
         <v>37</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="7">
         <v>38</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="7">
         <v>38</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="7">
         <v>38</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5">
         <v>39</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="7">
         <v>40</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="7">
         <v>40</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>41</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>41</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>41</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="7">
         <v>42</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>43</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="7">
         <v>44</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="7">
         <v>44</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="7">
         <v>44</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="7">
         <v>44</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>45</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>45</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="7">
         <v>46</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="7">
         <v>46</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>47</v>
       </c>
@@ -6502,6 +6502,9 @@
       <c r="P90" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="Q90" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="R90" s="5" t="s">
         <v>16</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="7">
         <v>48</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="7">
         <v>48</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="7">
         <v>48</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5">
         <v>49</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5">
         <v>49</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5">
         <v>49</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="7">
         <v>50</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="7">
         <v>50</v>
       </c>
@@ -6864,7 +6867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="7">
         <v>50</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="7">
         <v>50</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>51</v>
       </c>
@@ -6993,7 +6996,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>51</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="7">
         <v>52</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="7">
         <v>52</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>53</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="7">
         <v>54</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="7">
         <v>54</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>55</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>55</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="7">
         <v>56</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="7">
         <v>56</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="7">
         <v>56</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="7">
         <v>56</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="7">
         <v>56</v>
       </c>
@@ -7553,7 +7556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="7">
         <v>56</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="7">
         <v>56</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="7">
         <v>56</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="7">
         <v>56</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>57</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>57</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="7">
         <v>58</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="7">
         <v>58</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="7">
         <v>58</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>59</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>59</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>59</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="7">
         <v>60</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>61</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>61</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>61</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="7">
         <v>62</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="7">
         <v>63</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>64</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134" s="7">
         <v>65</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135" s="7">
         <v>65</v>
       </c>
@@ -8508,7 +8511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136" s="5">
         <v>66</v>
       </c>
